--- a/Final_Draft_Position_Graphs.xlsx
+++ b/Final_Draft_Position_Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Desktop\MQP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7072BD-8939-4D96-83FE-DA5B157D1A84}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A204C5-166A-4703-949D-48D405D3052F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" tabRatio="881" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clustered Normalized Metrics" sheetId="16" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <sheet name="Fantasy Pts vs DraftPos" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -979,7 +978,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E6BF4C4-05BA-4E85-98C3-5FABC8204D66}" type="CELLRANGE">
+                    <a:fld id="{94416AE9-822C-4EEF-9DA2-9FCE8FAC8AF6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1013,7 +1012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0727C15B-E8AB-4B64-B1EB-7EEE20EA0D94}" type="CELLRANGE">
+                    <a:fld id="{3C22A7A4-E15B-4CC5-975A-60D907AD0112}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1047,7 +1046,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{141922F4-CB16-4A93-8682-9F5593390059}" type="CELLRANGE">
+                    <a:fld id="{586B9C4A-354F-4907-A3B3-6879D2842B58}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1081,7 +1080,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA8498B8-ACE2-4964-BF5F-F61044B1604D}" type="CELLRANGE">
+                    <a:fld id="{5036ACDC-388D-44E2-9013-6DC6475C21CA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1115,7 +1114,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96955814-275C-4C1A-8D9D-EA09051C252F}" type="CELLRANGE">
+                    <a:fld id="{4648BC33-0B7F-49E3-AB9F-7FB301A175D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1149,7 +1148,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B691378-B791-4C58-9B2C-579037DDAE07}" type="CELLRANGE">
+                    <a:fld id="{286EF292-8F91-4A36-869E-5288C796D930}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4725,7 +4724,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40D1ED27-8DA0-4ABB-8BCE-A8E92550AD41}" type="CELLRANGE">
+                    <a:fld id="{D479198A-0BDB-4774-8362-AF154EDAC0F3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4759,7 +4758,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5EBCE311-2773-4C69-BDD8-6B77830182E6}" type="CELLRANGE">
+                    <a:fld id="{D838CACB-B153-4B4A-B157-738C13C7B671}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4793,7 +4792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80CFB1E6-2D14-4050-A25C-D0B875C6B7E0}" type="CELLRANGE">
+                    <a:fld id="{F1394FBB-33F2-4F85-87BD-9424612A3D00}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4827,7 +4826,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EF5E864-A961-4E0C-B38E-9BFA56B5282B}" type="CELLRANGE">
+                    <a:fld id="{0A010D4A-AF88-4378-A1B3-23AEF83020E6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4861,7 +4860,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C712AEB9-F660-4F68-9659-43B2A7BBD7F3}" type="CELLRANGE">
+                    <a:fld id="{7F4B68A1-EDEE-4F38-8108-16B3FD1E6CDB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4895,7 +4894,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03AE71A8-8CB4-4448-80F4-A3C45CE7477F}" type="CELLRANGE">
+                    <a:fld id="{464F31F3-3300-4517-8730-51D9F5285FA4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5437,7 +5436,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C3C1C1C-D216-4A3A-B310-3F1FE3FB6E61}" type="CELLRANGE">
+                    <a:fld id="{8FC80F79-F131-4C04-A43D-207687AC9200}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5471,7 +5470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08F9EACB-D03F-4322-9332-C6A46A5F0072}" type="CELLRANGE">
+                    <a:fld id="{FC15BF6E-91F3-48F1-92D9-788998D2CE20}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5505,7 +5504,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17EDCFE3-17A3-4AAD-AA1B-2BA52DF3BCCD}" type="CELLRANGE">
+                    <a:fld id="{233E1EB0-4749-48E3-A0F4-602DD246F186}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5539,7 +5538,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7076701-99F1-4752-AF11-259107240F48}" type="CELLRANGE">
+                    <a:fld id="{2A484D97-4C00-41CF-AEC7-CDD5F38118D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5573,7 +5572,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{705222FB-A5F9-4745-9D5B-9499619C8D10}" type="CELLRANGE">
+                    <a:fld id="{00DA3D91-F043-4613-B7EA-B7BE6BB825F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5607,7 +5606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{614D912F-E97D-4FDB-89F4-95E2F4630DF0}" type="CELLRANGE">
+                    <a:fld id="{C8B5099E-F1D9-4374-86F0-B1276472DEA7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5641,7 +5640,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32D35615-4598-4AC2-870F-22386188AF73}" type="CELLRANGE">
+                    <a:fld id="{AC81939F-82C7-4ECC-A252-5CC006F2679A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5675,7 +5674,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33588C1D-F942-4E3C-90CF-67EF7525F63F}" type="CELLRANGE">
+                    <a:fld id="{66750CCC-79AC-4C6E-AFBD-4969BC8C1914}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5709,7 +5708,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{346B3774-EC96-44FD-BCB2-A2D9F10E91DD}" type="CELLRANGE">
+                    <a:fld id="{C0EBC327-3222-402F-9ACC-5A1C56181283}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5743,7 +5742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A2946C2-5769-4834-BCC0-CCC0FF4F3C54}" type="CELLRANGE">
+                    <a:fld id="{572829F6-53E7-4DC4-83E2-EFC80EC19DFE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5777,7 +5776,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A26E9EDC-85F8-40A3-8C24-4E398613C48D}" type="CELLRANGE">
+                    <a:fld id="{BF91CD63-A278-44DD-8E19-3DED42A4815D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5811,7 +5810,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3C30A4E-57AE-4F89-99F0-65FF123D6BE8}" type="CELLRANGE">
+                    <a:fld id="{B1B9A4E4-DEBA-4A81-829D-10B607EDA162}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5845,7 +5844,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E4F53E6-162E-49C6-B8FC-69289E31491D}" type="CELLRANGE">
+                    <a:fld id="{C93A3E95-A296-4B05-A9AF-3038AC578803}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5879,7 +5878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4A60A0C-C543-47AA-987A-2EFF1A5C21B8}" type="CELLRANGE">
+                    <a:fld id="{2887F905-2B5D-4A61-928D-346CCA999FEA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5913,7 +5912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CF7E23F-777C-4F28-A49D-8A0BC844A132}" type="CELLRANGE">
+                    <a:fld id="{1CFD2306-6D21-4D83-9072-A836B94965A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5947,7 +5946,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{645A9D40-EFB2-4612-BF13-A688703A3530}" type="CELLRANGE">
+                    <a:fld id="{74210ABE-415B-46A6-9EE3-711DB37AF5F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5981,7 +5980,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C562B855-4439-4D0E-B239-EF16428A606A}" type="CELLRANGE">
+                    <a:fld id="{19683799-4ECD-484B-B7EF-D1BBEA17E823}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6015,7 +6014,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9B785FD-3B6A-4F9E-BA8F-3D0EF64BB7DE}" type="CELLRANGE">
+                    <a:fld id="{675361C6-29A1-4396-B547-281ACB4ECF1B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6049,7 +6048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB333C83-0A15-4EEC-8A43-1F6D5FDAECC7}" type="CELLRANGE">
+                    <a:fld id="{696AD6CD-B400-4742-A7CA-5ECCD1C34561}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6083,7 +6082,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DBB67CF-9DE9-490C-B871-4FCA88426B7C}" type="CELLRANGE">
+                    <a:fld id="{D1B64284-3C10-4C60-BAAF-AC16C8CC370C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6117,7 +6116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A494838F-4EA9-4FC1-80C9-AABA44672431}" type="CELLRANGE">
+                    <a:fld id="{E5819031-7430-4838-A7F2-22CC8FE2B0E4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6151,7 +6150,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24ED84B7-72AF-46E4-A991-1BF3CE9F41FF}" type="CELLRANGE">
+                    <a:fld id="{8D532238-0822-41C7-A404-E437BEDA31D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6185,7 +6184,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D262F3A1-40D7-4A75-9B0D-B627B4D0B63C}" type="CELLRANGE">
+                    <a:fld id="{9C094F49-466B-43BC-B0D7-0F15E903966B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6219,7 +6218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD02227A-A0EF-470F-90E5-AB51C5D8A1C9}" type="CELLRANGE">
+                    <a:fld id="{CA9B6F99-071F-4AC3-96D6-47E6FD78ED7F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6253,7 +6252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{310C2EA2-0879-4BBD-88DF-7F5C8923B141}" type="CELLRANGE">
+                    <a:fld id="{378248C6-EC9C-4D2F-8410-FEEB7D855D39}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6287,7 +6286,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{094040E0-5DC9-407C-8DD4-8D60F233F139}" type="CELLRANGE">
+                    <a:fld id="{A27E2E7E-338C-4270-8BB4-12E058B15927}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6321,7 +6320,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12B46AA4-DF01-412D-8133-A114CD662652}" type="CELLRANGE">
+                    <a:fld id="{47646426-DB3D-4CFD-BE75-7BA2A5D17617}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6355,7 +6354,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA2C012C-BD34-490A-9E7C-CF036E8A21C5}" type="CELLRANGE">
+                    <a:fld id="{4762EB56-5E07-44D4-B046-34F7563FC461}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6389,7 +6388,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{048C25D2-A49D-40B8-A51E-25F530573583}" type="CELLRANGE">
+                    <a:fld id="{7603B40B-36E6-41DC-B94B-49AB8D7EEC45}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6423,7 +6422,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CFE9BE0-2EB9-40F4-8557-0FC1371516BB}" type="CELLRANGE">
+                    <a:fld id="{357D27D6-B52C-4338-B7E7-1BDE8E145C4B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6457,7 +6456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83915B2E-1991-4C59-8EBF-41B6181BE595}" type="CELLRANGE">
+                    <a:fld id="{12DB852E-D5FB-4A2B-B7A5-A9BE1FFAC475}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6491,7 +6490,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C600AA84-C37B-41EF-BFC9-B4EEF3428F30}" type="CELLRANGE">
+                    <a:fld id="{3ED8FB63-BDE4-4FB5-A988-E3C062654285}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6525,7 +6524,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E1D3E9F-6361-4596-8CF9-8B8AC9513F97}" type="CELLRANGE">
+                    <a:fld id="{337FD06B-C6CC-4902-A88F-E4CAB1848A49}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6559,7 +6558,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9457222-FDD3-4B4D-BC38-496E6D0C2DCC}" type="CELLRANGE">
+                    <a:fld id="{0C45A75F-A61C-46D6-A5B3-A0C1AB30C8BB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6593,7 +6592,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65C3B369-DA84-40DD-A4F1-6E302968D39A}" type="CELLRANGE">
+                    <a:fld id="{4E9BF6F5-5DB2-4E10-85C5-B886DFC1B1AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6627,7 +6626,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D96A846F-EED2-4858-9976-5BFA569CAD26}" type="CELLRANGE">
+                    <a:fld id="{5494E0E3-67BF-4D0C-BFA2-C67D41639848}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6661,7 +6660,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81BCDA27-F0B6-494C-8692-246195DE65DA}" type="CELLRANGE">
+                    <a:fld id="{CCF7A066-C01C-4532-9D5A-AFC266FA43BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6695,7 +6694,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73ED218A-6F7C-4FFF-96F9-D4E5EC1FA6EB}" type="CELLRANGE">
+                    <a:fld id="{5357A749-B12D-49F4-8968-6E337AE6B92A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6729,7 +6728,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCC30F03-892B-448E-9864-4763ED72D25F}" type="CELLRANGE">
+                    <a:fld id="{5F8524E9-E4F0-4212-82AE-633E0859A8EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6763,7 +6762,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{052443BD-4DF0-492F-A3CF-83E9276C31A3}" type="CELLRANGE">
+                    <a:fld id="{43B7F7B6-BDE4-4A55-A83D-7136D945C4E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6797,7 +6796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACCD7E36-9BAE-4116-8AF5-90EC7A3517E4}" type="CELLRANGE">
+                    <a:fld id="{0C28720A-4239-4DA2-A222-FB305B2ACDC5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6831,7 +6830,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{671FFA07-8411-413A-A679-76DB0A5065BB}" type="CELLRANGE">
+                    <a:fld id="{B4EFC6FF-FFE1-40A7-8DBD-F5A111D5BCBD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6865,7 +6864,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2AE61ECA-16F6-4319-8EA6-4A7150C255E3}" type="CELLRANGE">
+                    <a:fld id="{665E44CE-18C0-47C5-A6FD-13AEB2F01DEE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6899,7 +6898,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B9363EF-0471-4F8F-BC3F-9B06E7F8FF20}" type="CELLRANGE">
+                    <a:fld id="{204683DD-5189-40AB-B414-C4410B87C7C6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6933,7 +6932,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8882D85C-8B82-4133-BA6D-1BF4F549A810}" type="CELLRANGE">
+                    <a:fld id="{9AFABC14-4399-458A-9E84-7EFDE545A2BB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6967,7 +6966,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E78133FB-2476-4362-B2E3-77F88E00C2C3}" type="CELLRANGE">
+                    <a:fld id="{36790B19-C0B4-4D31-A923-B8B0303326DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7001,7 +7000,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56BDA7A4-3A80-490E-B82F-BA7713F57867}" type="CELLRANGE">
+                    <a:fld id="{2B3A2CDC-FDBA-40DF-AE58-487C09D9A3D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7035,7 +7034,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{889E4109-A240-4573-AE14-A942FB532613}" type="CELLRANGE">
+                    <a:fld id="{1988E395-363E-4463-974D-629F497694AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7069,7 +7068,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6680A095-41D9-4C59-B742-09754EDAA32F}" type="CELLRANGE">
+                    <a:fld id="{3060224E-20D4-4EF2-98A1-4592B7A1F44C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7103,7 +7102,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D879546-5A92-4784-AD8C-06149C1C7F67}" type="CELLRANGE">
+                    <a:fld id="{6E9EEAA4-EE60-414A-A7C0-D43691E41762}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7137,7 +7136,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBF17EBF-3091-4A75-8233-46430EC226A7}" type="CELLRANGE">
+                    <a:fld id="{7D62E27E-41F4-4950-81BA-C3AC3364BAA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7171,7 +7170,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E863E8E-E7EE-4AC4-AB7B-230F56586B20}" type="CELLRANGE">
+                    <a:fld id="{844733F1-BBAE-4CCC-8B4F-D14491A8FA86}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7205,7 +7204,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4044534-D5A6-4F3E-94D6-2104A679AB58}" type="CELLRANGE">
+                    <a:fld id="{4C5ADCFC-B1B3-4866-BB18-59D8E1B67468}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7239,7 +7238,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9EB14D5-0722-477E-A781-7CF11D788DC5}" type="CELLRANGE">
+                    <a:fld id="{7A3AE7C6-27FB-4F41-8F69-A05D4372847E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7273,7 +7272,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16025DA2-3E5D-4C58-81EA-C9DDD804909B}" type="CELLRANGE">
+                    <a:fld id="{AEDFD575-13A2-443E-BE42-AA459213FBE0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7307,7 +7306,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04C77C4B-7A5F-4175-96C0-475B46DC9CBA}" type="CELLRANGE">
+                    <a:fld id="{41D29C7D-B7ED-4DE3-9C14-B1F355F83877}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7341,7 +7340,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B834014-4A6F-4E39-8A49-F22E911C9FC1}" type="CELLRANGE">
+                    <a:fld id="{EF99F997-0F34-42E8-BB2B-722AB81302F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7375,7 +7374,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{832F9C21-0FEA-4422-BF38-651897646682}" type="CELLRANGE">
+                    <a:fld id="{DA4BA4E1-EF99-465A-A93C-FEEA4A233555}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7409,7 +7408,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F5FD304D-BF1D-4C0D-9EE4-786F0C5C7EDA}" type="CELLRANGE">
+                    <a:fld id="{D00EF8CD-83A2-4B9F-8854-055C6386B875}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7443,7 +7442,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E72469B4-2ED8-4360-8576-FDD36F63D49E}" type="CELLRANGE">
+                    <a:fld id="{13C6A4EA-0F4E-48B1-9FA3-C880C08AA79C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8576,7 +8575,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{163BCDF1-48D9-42C1-A907-8FD493167EF5}" type="CELLRANGE">
+                    <a:fld id="{AED4DA74-0043-43CB-951F-E25731C825DE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8610,7 +8609,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A2226CB-3AA8-4990-8306-98597EFB980A}" type="CELLRANGE">
+                    <a:fld id="{8D0A1DD8-73C2-4EDA-BF57-CFEA2E45A02A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8644,7 +8643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{898F38B4-484A-4D28-9CAC-2996CF212FDF}" type="CELLRANGE">
+                    <a:fld id="{35CA49B0-B87A-4EC7-8CDA-18AD0B02355F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8678,7 +8677,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{844E1122-3CC9-4039-9476-7BAF3CCF25C4}" type="CELLRANGE">
+                    <a:fld id="{AA3EAD88-F42F-4F70-B8F5-B0548EEB8335}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8712,7 +8711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCDBF4C2-A8FB-4372-A5D8-70F519C28A35}" type="CELLRANGE">
+                    <a:fld id="{CF414876-D338-4138-802F-963F8F2E840C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8746,7 +8745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D024288-EDF4-4598-96C5-08AD3C981383}" type="CELLRANGE">
+                    <a:fld id="{2E02D5EA-058E-4623-8C8B-B313C0BBA0A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8780,7 +8779,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB766E59-A85C-4E7C-94CA-BC1236A37660}" type="CELLRANGE">
+                    <a:fld id="{3524CA98-3A0D-4676-AC9C-74BAB3E88103}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8814,7 +8813,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF03DEA3-FFAD-4B43-8BDA-7BF4743216AB}" type="CELLRANGE">
+                    <a:fld id="{898BFE0C-DAE6-4E50-86AB-50E76F1A71ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8848,7 +8847,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACA75C4F-1F38-464E-AAB2-89F4A2214887}" type="CELLRANGE">
+                    <a:fld id="{303F6B98-FA17-4586-9ED1-917851689F95}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8882,7 +8881,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7CEB06D-73D0-4F9C-B177-EF0CAE657851}" type="CELLRANGE">
+                    <a:fld id="{6AAC30A3-D56E-471E-872C-313074083B3E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8916,7 +8915,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFD0541F-1667-41AB-A57C-353CC7AD09C8}" type="CELLRANGE">
+                    <a:fld id="{28587279-E79A-4262-95A8-157D175CEEE0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8950,7 +8949,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5ACAF9C-2F99-4BB6-8E87-9B59E911233D}" type="CELLRANGE">
+                    <a:fld id="{E17FB05B-0F32-4674-9EE2-AB76CF34E846}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8984,7 +8983,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED796B48-AE58-4712-B7EB-E291A64DA61F}" type="CELLRANGE">
+                    <a:fld id="{233F7079-EC09-40C7-8738-940DF2C95F65}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9018,7 +9017,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91743BB8-8B54-4998-B1F7-3EB3B6C38524}" type="CELLRANGE">
+                    <a:fld id="{CB450193-37CD-4A4D-B4E8-77319D216326}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9052,7 +9051,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BD51C29-3671-4604-BCA1-F39DFBDF35B3}" type="CELLRANGE">
+                    <a:fld id="{B0F38783-FA3C-4D57-81E3-6B9AB79A27A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9086,7 +9085,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{138E4251-CBAA-4C85-B66A-8E3BAD97B273}" type="CELLRANGE">
+                    <a:fld id="{A2F377AA-85AB-40E9-B674-255F736B32E4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9120,7 +9119,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B358111-0CA0-4876-9671-9B6A1B282F29}" type="CELLRANGE">
+                    <a:fld id="{58E0364C-1A33-4E25-AC91-2743A0AFD740}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9154,7 +9153,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDB00B96-4582-4975-AEDA-3E24961F5DD1}" type="CELLRANGE">
+                    <a:fld id="{CE9E1C52-AD88-4CDB-B854-1B5D1D08B608}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9188,7 +9187,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{654385B3-7C6E-4DCF-8492-2EDC3BBC08A4}" type="CELLRANGE">
+                    <a:fld id="{10316184-E105-4DAF-8CA4-DA2C3C40F368}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9222,7 +9221,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A69571D4-1006-4D35-832B-CD6B723428C0}" type="CELLRANGE">
+                    <a:fld id="{8C67A479-8CAD-48DE-A123-6E280E40AE16}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9256,7 +9255,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AF3A4B7-47F8-4006-8D2E-A32AE473C707}" type="CELLRANGE">
+                    <a:fld id="{D048334B-7D97-4D6F-9CD1-DD32AF07774B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9290,7 +9289,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36B0F782-4077-4233-9122-CB8E363E6098}" type="CELLRANGE">
+                    <a:fld id="{E79DA0B1-3039-4F43-855C-1F3315FECF87}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9324,7 +9323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D270457-9C1B-4655-9864-365EF704A06C}" type="CELLRANGE">
+                    <a:fld id="{31D42F0C-3A09-4E77-92F1-0D1E9641B80A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9358,7 +9357,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45936057-20BF-4910-A21F-B560A54C197D}" type="CELLRANGE">
+                    <a:fld id="{B8066F8E-C846-4564-AC0A-8576FBD31A58}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9392,7 +9391,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{518AC3A0-6147-4CDE-A7CB-56A24F15A791}" type="CELLRANGE">
+                    <a:fld id="{87791645-F59F-4351-9191-9DBED00F36D4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9426,7 +9425,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6426255-456C-45B2-801E-67AE45B83A96}" type="CELLRANGE">
+                    <a:fld id="{AF4B71C9-71FB-44D1-A03E-1EB3CF8AB0AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9460,7 +9459,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78A2B49C-D878-4094-8DED-B338CA4C7F68}" type="CELLRANGE">
+                    <a:fld id="{1DD89B80-B2EE-4B20-813A-5E80377269E2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9494,7 +9493,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A6236DE-7C33-48F7-9E8F-4976A2DD7141}" type="CELLRANGE">
+                    <a:fld id="{06077433-B221-4CD7-9464-69ED810572FE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9528,7 +9527,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C8FA997-D5DE-41BF-8157-A160C2AB81B4}" type="CELLRANGE">
+                    <a:fld id="{DADF137A-C0C9-4E68-9D75-EAFFDC21248B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9562,7 +9561,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F32EFBC5-D6BE-4C13-B61F-6F6E8A6F8371}" type="CELLRANGE">
+                    <a:fld id="{19E734D8-065F-46DC-8470-D3586A2FE03E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9596,7 +9595,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EE80A36-7CEF-45FD-99D3-2DACDBD951D2}" type="CELLRANGE">
+                    <a:fld id="{D7233302-3D8E-496C-84DC-61AFC4B1DDE8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9630,7 +9629,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18E17B02-FF09-406B-A11D-63D0B8041907}" type="CELLRANGE">
+                    <a:fld id="{15559151-B54B-466E-98F3-5B6483F66A0D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9664,7 +9663,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E74D8FF-CC06-4963-844B-350C1EF509B4}" type="CELLRANGE">
+                    <a:fld id="{A1778B2D-CD5A-4478-B927-1D160F73F5B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9698,7 +9697,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87B7F223-A5E6-47CA-81D8-23B671D3C745}" type="CELLRANGE">
+                    <a:fld id="{16232DED-4B0F-4416-9852-93B99F8CE897}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9732,7 +9731,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3EC49B3-4135-4236-A8BE-BBA9F6BF8DA2}" type="CELLRANGE">
+                    <a:fld id="{18DC0E3F-19F0-4A49-BFE3-8CD79743A9D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9766,7 +9765,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B443256-FD7C-443E-A918-3B9629420F40}" type="CELLRANGE">
+                    <a:fld id="{9367DCF2-8115-4C47-BC5D-122E397C4BAA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9800,7 +9799,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9A5C936-F43C-4414-84A6-76A26AC008BD}" type="CELLRANGE">
+                    <a:fld id="{E6A5B48B-7D4E-40FE-8EBE-7339840CF55E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9834,7 +9833,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3325C0A4-1F6B-401C-9DBE-DC469BB62ED0}" type="CELLRANGE">
+                    <a:fld id="{D62FC753-4228-42A0-8DBB-48B1F3BAD6EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9868,7 +9867,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E51D7DD0-0621-4109-95F1-82FFE5532A98}" type="CELLRANGE">
+                    <a:fld id="{B9AA4C18-5A40-467D-9705-F8CD518DE7C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9902,7 +9901,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B9149E1-D3A1-43F6-A63D-19A90BA3AD47}" type="CELLRANGE">
+                    <a:fld id="{2CFB60A2-FC9B-473F-ACA7-A10DCADB131C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9936,7 +9935,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7BE6515-6F9E-4A97-A8AD-BFCF23E5E374}" type="CELLRANGE">
+                    <a:fld id="{73B5B843-AB4B-4372-9B70-B5922D820083}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9970,7 +9969,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45E45FAD-0F65-4DD1-AB1C-B1D15CED69FE}" type="CELLRANGE">
+                    <a:fld id="{7508CC4F-0AB0-4C2F-BD76-C3D1616B7F66}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10004,7 +10003,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B1588F8-C84E-43E6-BEA0-54B1B4130D15}" type="CELLRANGE">
+                    <a:fld id="{2BFFA34E-35D7-443D-A034-B1C76401537E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10038,7 +10037,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{652CB3F5-9F90-4DBC-8B73-B7B66E6151A9}" type="CELLRANGE">
+                    <a:fld id="{8D6C5563-BD0A-4431-AC33-2663F901CF4B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10072,7 +10071,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{094EF158-201E-4437-8A45-2292F95CDF26}" type="CELLRANGE">
+                    <a:fld id="{4BF2BC08-694D-4994-93D4-5CD0FF7F88B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10106,7 +10105,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB9B8F5B-2971-4783-AB26-F3F47E8DD7D0}" type="CELLRANGE">
+                    <a:fld id="{582C12F7-9983-484B-9108-79171F7CDDBC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10140,7 +10139,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C705669F-48BB-43EC-951A-2A2D5E51CA67}" type="CELLRANGE">
+                    <a:fld id="{C9F219ED-C72B-4134-8A77-72220897B8A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10174,7 +10173,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1DB3E7A-154F-4B0B-822B-27CB0C3FCF47}" type="CELLRANGE">
+                    <a:fld id="{E549D023-C07B-465B-B3E3-CBB78AF1448D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10208,7 +10207,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C06028C1-8F21-4AA4-92CB-377E3E2EADCF}" type="CELLRANGE">
+                    <a:fld id="{D5EAE8EC-510F-489E-A597-B1E354178F56}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10242,7 +10241,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8491B1EE-EE3D-434B-8CEB-BCE728A26753}" type="CELLRANGE">
+                    <a:fld id="{4265AAC5-CCF4-4F72-923B-D7968EB839D4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10276,7 +10275,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFAD66AF-7206-44AD-A528-97C3B43B2531}" type="CELLRANGE">
+                    <a:fld id="{2A9292BB-DA22-45EC-BB75-32FCA9C9AD8C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10310,7 +10309,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1A39C3A-10B0-4C03-A08D-50A17260F931}" type="CELLRANGE">
+                    <a:fld id="{B8EA126A-D061-4262-A52B-9587233FD089}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10344,7 +10343,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90BB6FAA-D4F3-4B0B-B3EC-A5D19B48E157}" type="CELLRANGE">
+                    <a:fld id="{8B939CE1-BAA4-4B6C-8644-86A5278D0414}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10378,7 +10377,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B60D09E-9679-41FF-8BC0-4880714B0628}" type="CELLRANGE">
+                    <a:fld id="{28F763A7-4E78-4ACA-A9E7-D40343DB66C7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10412,7 +10411,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D1E4DFB-06D7-406F-962B-CD8D1333E6AC}" type="CELLRANGE">
+                    <a:fld id="{168180E3-ECAD-4F54-8952-6E68FAA32EA0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10446,7 +10445,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{343856E4-4D95-4717-82BF-BD34B1B806E4}" type="CELLRANGE">
+                    <a:fld id="{7D41B78E-EFBC-4040-8E16-EFE19D6573DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10480,7 +10479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E45CFCA5-1B2D-4213-9C56-62193986E184}" type="CELLRANGE">
+                    <a:fld id="{E36DB5AC-4E67-4EBD-A4A1-9D7D8366E10B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10514,7 +10513,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBA0D7DF-9034-4028-8D84-82DCFE2E446B}" type="CELLRANGE">
+                    <a:fld id="{A139CB5A-A63C-4C2F-A9BD-3A8DBBF995BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10548,7 +10547,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4479C067-0727-4CF5-A06C-535EDE0310C4}" type="CELLRANGE">
+                    <a:fld id="{298191E3-06FC-4903-AC71-E55B77B178CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10582,7 +10581,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2B02931-981A-41A6-8975-2E4B3B951420}" type="CELLRANGE">
+                    <a:fld id="{3D70EE90-9BD7-461B-A778-1F614401DF5A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11712,7 +11711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D3F3356-A058-493D-BB00-6848352D473C}" type="CELLRANGE">
+                    <a:fld id="{70FA5CE7-D2D8-490E-A2CF-7D6E3361D4D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11746,7 +11745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F3139A3-9DA1-4EFB-A938-310BB8B8E6AA}" type="CELLRANGE">
+                    <a:fld id="{CE4B5821-6DF1-42A8-AD6B-25403EF98B5E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11780,7 +11779,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E70C6A6-B471-42A3-9446-46AAF5F21511}" type="CELLRANGE">
+                    <a:fld id="{709025D2-F4EC-408C-AC70-6C413AFECB4D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11814,7 +11813,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A10E066-4A5B-4823-B1D2-7998B278ABF7}" type="CELLRANGE">
+                    <a:fld id="{8446301A-14A5-4BE8-9E5B-18DD7571CC21}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11848,7 +11847,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1106F4A6-4F8D-4423-B2E1-E80A78F46342}" type="CELLRANGE">
+                    <a:fld id="{210FF9E8-9AED-4947-978D-87E06ECBF595}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11882,7 +11881,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53192C46-D39B-465A-A61A-00065D00C952}" type="CELLRANGE">
+                    <a:fld id="{90EEF6DE-2595-4ED4-A5E2-F45AA82FE7FA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11916,7 +11915,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{306D1DD8-DF8E-4980-BBC6-CF4ACCB00DB1}" type="CELLRANGE">
+                    <a:fld id="{76C29AC2-184F-406A-9676-E6A48E68C88A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11950,7 +11949,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F32B0BAD-80ED-4C0F-8558-0395C2AF8A34}" type="CELLRANGE">
+                    <a:fld id="{1CF36CB5-BB49-4ABE-94FF-C53A07D2E7F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11984,7 +11983,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC919F93-5EA0-4097-B1FA-01657EF770C3}" type="CELLRANGE">
+                    <a:fld id="{8907A4CF-832C-44A4-9E10-7A7B7BB77B32}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12018,7 +12017,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE52DC16-11B2-4D1E-9F22-20B0041E2592}" type="CELLRANGE">
+                    <a:fld id="{2616CBCA-1AD8-48DB-B9C1-D1616E1E4DD5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12052,7 +12051,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3103A90B-69F3-469A-8068-3747D3E7BFF1}" type="CELLRANGE">
+                    <a:fld id="{DC9F266B-51BA-425E-8E23-AD93C0120D7F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12086,7 +12085,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{46CDB437-3CB4-4586-B083-BF49B01AD2B6}" type="CELLRANGE">
+                    <a:fld id="{F16AA954-AE70-4A5E-A82B-8F21365F3B2C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12120,7 +12119,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A8E9F57-2056-4442-A14E-E4C1129188E7}" type="CELLRANGE">
+                    <a:fld id="{1BA516A6-C9A4-4CE9-AAD4-D48B4D93F1D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12154,7 +12153,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A618C937-D36D-4D02-9DF7-D873BC39888C}" type="CELLRANGE">
+                    <a:fld id="{C7C24F53-C692-4A17-9B3E-8AB31219E5CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12188,7 +12187,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5D9B0D0-3CBC-43D4-AF4D-1B1FB476281F}" type="CELLRANGE">
+                    <a:fld id="{8CB229F4-FD52-4A54-B2F6-A34B55619585}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12222,7 +12221,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EEF65535-89DD-458A-93E1-2180894A5D19}" type="CELLRANGE">
+                    <a:fld id="{365613FD-9CF1-4518-AD08-F1DD7043D0E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12256,7 +12255,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EFCE64D6-D321-4576-816F-E5E471ECE549}" type="CELLRANGE">
+                    <a:fld id="{AA53F5D0-9F85-4DFD-963D-0B8A192D7A36}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12290,7 +12289,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{986AB968-3371-41A1-9DBA-296647291137}" type="CELLRANGE">
+                    <a:fld id="{B2CD5892-282D-4D55-B64B-696CE3140FAB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12324,7 +12323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9938ABEA-258D-45DF-936E-2751D5CA880C}" type="CELLRANGE">
+                    <a:fld id="{8AD86803-6A59-4335-99B8-7AAA9ACD99D1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12358,7 +12357,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70F1025F-C953-476F-84D0-8C063A732BC5}" type="CELLRANGE">
+                    <a:fld id="{D88E1656-03C8-46F4-AF34-76684DB8687D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12392,7 +12391,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{080065CE-5883-44B6-8B6B-E8BFFF087B65}" type="CELLRANGE">
+                    <a:fld id="{47BB4DC8-25EB-4CA0-ADE9-789F7F31EEA4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12426,7 +12425,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A7F494B-8E1D-439F-B52A-3FCAE7D87DCC}" type="CELLRANGE">
+                    <a:fld id="{F5C34759-B3B2-4228-8B6F-30B4148D16C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12460,7 +12459,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C63B00D-8B8F-45A5-B76A-81F8870232B7}" type="CELLRANGE">
+                    <a:fld id="{E8197F3B-FB36-463B-9FAA-1D42E11688D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12494,7 +12493,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75A05ADD-E351-49BB-A686-E23EA2351D9C}" type="CELLRANGE">
+                    <a:fld id="{5BE8261F-B1BA-423E-8C01-3BBDDB1BDDD0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12528,7 +12527,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6ACEE67C-E3BA-4154-B310-0E1180B8C8A3}" type="CELLRANGE">
+                    <a:fld id="{C7118175-265B-4DBB-B342-129771486C70}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12562,7 +12561,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{990526FB-721F-4A5E-9182-A3F1BC7741BF}" type="CELLRANGE">
+                    <a:fld id="{EC9A6725-DAAD-4B50-AB18-36AD2246E044}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12596,7 +12595,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80CF5C89-8C77-4D03-986E-DB53E26692A6}" type="CELLRANGE">
+                    <a:fld id="{DC94D7C6-5A0B-4408-825E-EC83D06A0758}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12630,7 +12629,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D23EA5C-A8A9-4447-B2AC-7575E4DEDFE0}" type="CELLRANGE">
+                    <a:fld id="{4EC60DFC-EDED-4E34-9D6F-282A2568CBA4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12664,7 +12663,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8D1BBF0-B2BD-4E54-91AD-C0E03E38D08E}" type="CELLRANGE">
+                    <a:fld id="{C97E2209-3924-4005-8515-5FF049D025D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12698,7 +12697,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DC86EB8-A078-4540-A32E-F439E036292F}" type="CELLRANGE">
+                    <a:fld id="{2CDD0767-C1B0-4EC2-9CA1-493FDF87C33B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12732,7 +12731,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85DD9708-2407-4AF2-831D-8F2E94DD2CD1}" type="CELLRANGE">
+                    <a:fld id="{42A26CE8-8EAF-446B-8C22-6E10088BF87D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12766,7 +12765,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{023BC288-33F4-4255-84E3-FBCD9DED08A6}" type="CELLRANGE">
+                    <a:fld id="{492FF094-4E37-4FE2-B8DE-CF0B1A394092}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12800,7 +12799,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99EE3F46-AF2E-48A1-AD3F-C3355B76B8F1}" type="CELLRANGE">
+                    <a:fld id="{36DB5280-AAED-4282-92BA-3A3790B5D379}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12834,7 +12833,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{421624F5-2256-4C68-8FBA-A40853EE908D}" type="CELLRANGE">
+                    <a:fld id="{C7E83D9E-8AD0-4491-AB25-2C1624C14134}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12868,7 +12867,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34FCF639-7243-433F-A6A0-F6B5DA94B94D}" type="CELLRANGE">
+                    <a:fld id="{80022170-F3A6-446A-8AFB-562B3A95528D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12902,7 +12901,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9987FD9-247F-4370-BDED-81F59AC0C0CE}" type="CELLRANGE">
+                    <a:fld id="{BF85FDDA-1492-48F5-B3F9-59E6E8F472AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12936,7 +12935,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BC5A0A5-153A-46A7-BD4D-708EEA7F5DDC}" type="CELLRANGE">
+                    <a:fld id="{4173BD76-5D35-438F-8851-62073B1DB08B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12970,7 +12969,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0EECCAF-480F-4822-81AA-50EE29D82D0F}" type="CELLRANGE">
+                    <a:fld id="{C0C2C528-92E5-416C-B72E-902A1D24555B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13004,7 +13003,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FB4315F-4EE5-43E7-B43F-7BD806382A80}" type="CELLRANGE">
+                    <a:fld id="{36B7F356-4E87-44F4-8C15-7EC62041B338}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13038,7 +13037,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D04B8D6A-D360-492E-97AE-FB88D389A655}" type="CELLRANGE">
+                    <a:fld id="{096E23B2-4D41-4199-B7C7-B1AF3BA2E613}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13072,7 +13071,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9267CDEC-8A17-4D27-A3B5-064EC34E0B83}" type="CELLRANGE">
+                    <a:fld id="{27CAE512-9504-40E1-A6CE-8AA1036C9EE9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13106,7 +13105,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65D3FF74-0005-4708-8597-BF284C0B4D44}" type="CELLRANGE">
+                    <a:fld id="{B0179C8C-FB31-4772-B933-A9550F157F97}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13140,7 +13139,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{983891C9-F065-449C-901D-B010DC35700C}" type="CELLRANGE">
+                    <a:fld id="{CFA28765-8583-46CD-9D00-78B945463B6C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13174,7 +13173,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EEF3A4C-A3AA-4567-B5F5-9403D06BE7EC}" type="CELLRANGE">
+                    <a:fld id="{3B955A70-988C-4675-B602-8D6447F8BD8D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13208,7 +13207,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2228468-958F-4BF1-8906-9BEF4835573C}" type="CELLRANGE">
+                    <a:fld id="{D5951627-7634-43AC-BD2A-1BF2EBBE7C74}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13242,7 +13241,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AA93382-A4BB-4840-8613-3AA627465175}" type="CELLRANGE">
+                    <a:fld id="{56437854-7C28-4CC4-9A8F-05A1B465FB18}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13276,7 +13275,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9BC8356-BD67-46EC-A30E-0B7363A03280}" type="CELLRANGE">
+                    <a:fld id="{9B557003-858A-4329-A724-025E3FEE36CE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13310,7 +13309,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29E970C8-878E-42A5-88B6-7E16FCD30C3B}" type="CELLRANGE">
+                    <a:fld id="{108EAFF2-66E6-42B1-830F-59E04F66AD31}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13344,7 +13343,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{616BD273-1C5B-4903-AFE9-16BB26C543CC}" type="CELLRANGE">
+                    <a:fld id="{CBF1766E-17AF-415E-9D0D-BAB25538D2EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13378,7 +13377,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CD8080A-484C-4A53-A5BF-1C3F8154ED9F}" type="CELLRANGE">
+                    <a:fld id="{4662CE35-60CD-4DB6-9563-72E832BBC2D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13412,7 +13411,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7D595BA-E1E7-4D5E-A173-B25EB295C961}" type="CELLRANGE">
+                    <a:fld id="{BDBB043B-53E2-4D3C-B097-448F52BA0768}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13446,7 +13445,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90610741-6E01-4D4E-91C1-EC6B1A1BF7B5}" type="CELLRANGE">
+                    <a:fld id="{86F2DE34-B8C3-4812-A0C1-0008DFEA0EBA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13480,7 +13479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E7E4E59-0DF1-44B9-9353-160948BDB287}" type="CELLRANGE">
+                    <a:fld id="{10A5F32A-1E34-43F0-B308-00A9A7E3885E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13514,7 +13513,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95CFFE26-F911-444B-8A86-AA3684865034}" type="CELLRANGE">
+                    <a:fld id="{BDC98BF2-1F1D-4EF7-A696-99A8E61DD546}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13548,7 +13547,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22153B17-CB89-4517-8E58-5438CE267790}" type="CELLRANGE">
+                    <a:fld id="{5F71F85E-C547-4386-9C2D-5AD524E388CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13582,7 +13581,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDD4A6AE-4A70-4059-831C-9EE124C0938A}" type="CELLRANGE">
+                    <a:fld id="{21AEE1B0-8775-4B5B-A399-834AC9A195C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13616,7 +13615,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D673742-112E-4C8B-861D-8CB6907D7DA5}" type="CELLRANGE">
+                    <a:fld id="{F2423B95-D271-43E2-8EE1-33126477C44B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13650,7 +13649,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4B672AE-6843-4D73-A79B-FBE958A6CE56}" type="CELLRANGE">
+                    <a:fld id="{385CFD9C-B496-47CB-9E13-DDEFB03C2C53}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13684,7 +13683,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AAE0711-3CDB-4F2E-88A7-0E0AB4F64606}" type="CELLRANGE">
+                    <a:fld id="{DD100825-1A4B-4541-897F-938D19BBB106}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13718,7 +13717,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81F3FF1B-3705-4CE4-99A6-8676A46190EC}" type="CELLRANGE">
+                    <a:fld id="{B85E3A86-E41D-4853-B4A9-001DAC3E7A85}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14848,7 +14847,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34365852-48D8-419C-A09A-C9DE01981F7A}" type="CELLRANGE">
+                    <a:fld id="{99B1889C-3AFF-4FAF-960C-C4418054C2F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14882,7 +14881,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4A8AE5D-09A7-4790-A6D5-5116777495D0}" type="CELLRANGE">
+                    <a:fld id="{A36ED4F6-AB6E-428B-9237-44ED01D61334}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14916,7 +14915,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76C4E2CD-A25A-41F2-B464-0E8D68EEAE75}" type="CELLRANGE">
+                    <a:fld id="{52136295-F351-4F55-B1E4-BBCEF235492E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14950,7 +14949,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7954A837-1584-4222-A81C-60137806A65B}" type="CELLRANGE">
+                    <a:fld id="{4A760011-A097-48E2-858A-99FCC9351917}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14984,7 +14983,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5D83DEF-F2EB-45F5-94DF-2E095438AF71}" type="CELLRANGE">
+                    <a:fld id="{0409B67E-C375-4FD2-9682-621FEDA393B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15018,7 +15017,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{893F9A12-39EE-432B-B55E-3F7E9BF8B230}" type="CELLRANGE">
+                    <a:fld id="{94E4BA52-71D9-4A18-8FB3-D787BAFD3EA0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15052,7 +15051,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0BA199D-73F5-4C59-9D08-65233590C10D}" type="CELLRANGE">
+                    <a:fld id="{8DCD2386-409F-4B68-982C-ECCB976FF245}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15086,7 +15085,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3709F72F-FD87-4926-8733-DF31776B1D25}" type="CELLRANGE">
+                    <a:fld id="{1802DE3F-1E2F-47B6-996A-B007FA4C6B1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15120,7 +15119,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A8A9AA1-634A-489F-A1E7-E704DC720912}" type="CELLRANGE">
+                    <a:fld id="{300DE3B7-EECB-4AA8-81CD-535E29A97136}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15154,7 +15153,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19A351BB-1AEE-4E39-A4F3-01AE59E310FE}" type="CELLRANGE">
+                    <a:fld id="{F189DEB1-DF03-45ED-8E80-0C4654984360}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15188,7 +15187,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B538CE7D-EA5C-46B0-A148-A0573D9ABFA8}" type="CELLRANGE">
+                    <a:fld id="{5201E0BA-C528-457E-A3DB-34657A1FDCB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15222,7 +15221,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42490B51-54C2-4014-BD44-07E91599F780}" type="CELLRANGE">
+                    <a:fld id="{6CE9AC47-26AC-4D3B-8446-D8DA788D52F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15256,7 +15255,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09AAF28B-BA76-4EBB-BD0D-6AA9B8A805A0}" type="CELLRANGE">
+                    <a:fld id="{D10A8BAE-96DE-45B4-B86E-BAEC83AE837F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15290,7 +15289,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D5DBD00-98A2-4238-BAA5-E7354B4F635E}" type="CELLRANGE">
+                    <a:fld id="{C3613413-A086-43E0-B48F-D30AA763D5D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15324,7 +15323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5599F34-B89A-46CC-A6EA-62F2A7FEC609}" type="CELLRANGE">
+                    <a:fld id="{536C717C-C36C-449C-85AF-CAA2CD7C7AE4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15358,7 +15357,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{567F1D5F-F1BE-440F-8EDD-37D96E4A9E38}" type="CELLRANGE">
+                    <a:fld id="{C82DE563-0CE5-4F65-A5C2-4ED1526CECBA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15392,7 +15391,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AAC2FF0-87EF-4D00-AA06-A771444799C4}" type="CELLRANGE">
+                    <a:fld id="{EDA5DF62-00BA-46D6-82E8-D52F6123CD0D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15426,7 +15425,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F39DA4C5-6A22-4F6C-9B7F-1DCC17DEEF87}" type="CELLRANGE">
+                    <a:fld id="{ED7994D9-976A-467F-815D-C85B9BDEB83B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15460,7 +15459,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81C8B65F-5673-4094-86E9-C2C681A3C457}" type="CELLRANGE">
+                    <a:fld id="{7F3A117C-7ED5-41E8-8825-8756879F21EC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15494,7 +15493,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{618E2CA6-68BE-4721-97F6-4E1A73D04F07}" type="CELLRANGE">
+                    <a:fld id="{65ABDB17-2DDF-4CFD-AF54-25B0B41BE7B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15528,7 +15527,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F68070CE-2D96-4ED4-8D26-7CC3FC82EAEB}" type="CELLRANGE">
+                    <a:fld id="{43968CCA-1715-498E-8988-4699DF4DBA26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15562,7 +15561,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D18E2A78-5F90-4C5C-84B2-F1C1F7B7AD88}" type="CELLRANGE">
+                    <a:fld id="{EB0AA0C5-EDCA-4C7A-B448-AB0E975AF7F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15596,7 +15595,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AB9CED7-8EA2-4B68-A958-6111DCB8D2B6}" type="CELLRANGE">
+                    <a:fld id="{00452A1E-A8C5-497B-826D-EA7F41524548}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15630,7 +15629,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A0852EC-B2D1-4EE9-8358-C0676DBDC0E4}" type="CELLRANGE">
+                    <a:fld id="{362EE86D-B1B2-4876-A33F-34FFC997E1C5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15664,7 +15663,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D31FFA2B-8EA8-4331-9798-BEF0EEF3D6DE}" type="CELLRANGE">
+                    <a:fld id="{42BBADF8-5EFC-4249-896C-7BE05EF62AD1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15698,7 +15697,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2FA8F0A-6513-4CE2-8E3F-498AB6658B35}" type="CELLRANGE">
+                    <a:fld id="{FD4E1C6C-519A-4508-BCE5-FF8745797228}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15732,7 +15731,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91B2202E-B33D-4031-B93C-B41F3486A097}" type="CELLRANGE">
+                    <a:fld id="{6AF31FD8-B56D-44B4-9FD1-160E494C4C3F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15766,7 +15765,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB32D6B7-E599-4F86-8317-3D0F173B1FBF}" type="CELLRANGE">
+                    <a:fld id="{093D6206-B0AB-456E-AF8E-B6C0B7D3F939}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15800,7 +15799,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4051184-4DFA-4917-AA1E-3D4DDF6E3A52}" type="CELLRANGE">
+                    <a:fld id="{29249B5E-62AD-4E4D-87F7-372AE4938941}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15834,7 +15833,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CE2EBEA-B49E-4057-BD2C-022AEE89B3B3}" type="CELLRANGE">
+                    <a:fld id="{2700EDEF-4F66-4C9F-8EA5-18814B3F31B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15868,7 +15867,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEF5819D-A8DF-4B13-9228-927DE9F02A2C}" type="CELLRANGE">
+                    <a:fld id="{CBE4F751-3BFB-459B-8612-FB97F51B981A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15902,7 +15901,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0453B9E-9362-44D8-AF0A-71236A95A0AF}" type="CELLRANGE">
+                    <a:fld id="{798903F2-2FF6-438C-928E-3FB9A9B0C8BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15936,7 +15935,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{173596E7-ECE5-4834-8A5E-F82A6F2281E4}" type="CELLRANGE">
+                    <a:fld id="{81A555A6-4FC3-4E7F-AA5F-86B56E171FA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15970,7 +15969,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B949A440-50C9-4E82-B955-7A64EB9DFC86}" type="CELLRANGE">
+                    <a:fld id="{B47F268A-DA6C-4FDA-B760-8039D36BB3C5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16004,7 +16003,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2681329A-89FE-4C83-A86C-1DAA347A2F55}" type="CELLRANGE">
+                    <a:fld id="{4CB9FCC6-7797-4480-9D28-EA560027E41D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16038,7 +16037,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE7964D4-C72A-46F8-B289-E00FD44DF3AB}" type="CELLRANGE">
+                    <a:fld id="{AA8B7BF2-1992-4354-8175-47E13C991A0C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16072,7 +16071,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AD74C32-6821-4C88-861D-04D37953C7D3}" type="CELLRANGE">
+                    <a:fld id="{C682489B-42F3-4FAA-BCC5-51578A64DFB6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16106,7 +16105,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C2E408C-C260-4266-9C85-6AC2CA7E6685}" type="CELLRANGE">
+                    <a:fld id="{45BFD8A7-5D79-481E-9894-7143E11563A5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16140,7 +16139,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD25D9A6-6417-4E08-8101-B3253DA65192}" type="CELLRANGE">
+                    <a:fld id="{3632E1D1-2A99-4A39-8383-51A66BF08EBB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16174,7 +16173,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77349B14-0E2A-41FB-B0C4-38FEE47B010C}" type="CELLRANGE">
+                    <a:fld id="{4EA5C6D6-EF47-4A1A-856F-D03ADA6CD53C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16208,7 +16207,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F17600A6-72F1-46FE-B6AC-2B87D8D83E54}" type="CELLRANGE">
+                    <a:fld id="{122875BA-68B1-4DC7-9A05-E4D4D8571F20}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16242,7 +16241,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{302F5DCF-C2B4-4218-AC2F-4B49E33D958C}" type="CELLRANGE">
+                    <a:fld id="{DADDD6F3-9351-4973-AB2B-24AD98863F44}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16276,7 +16275,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CAE77CC-5567-40D0-82AB-069F8688FCE0}" type="CELLRANGE">
+                    <a:fld id="{AF63ED33-E175-4F04-B473-1172AEF09E41}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16310,7 +16309,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43EBDD9F-2EF3-4BFB-9DFF-A90603F9841C}" type="CELLRANGE">
+                    <a:fld id="{BAC5DFB9-A08D-4CCD-89C2-9DF97D8CD32E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16344,7 +16343,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65F844E2-8526-4F9A-B07E-3DC1AA87391E}" type="CELLRANGE">
+                    <a:fld id="{E49C3F1C-3978-41C1-A7CC-2E15D0758E25}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16378,7 +16377,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{659CF07A-6A66-41CD-95E0-95AC19762164}" type="CELLRANGE">
+                    <a:fld id="{EC75FBE1-238F-4E22-B9BF-A4C81B3E5A34}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16412,7 +16411,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35325E28-DF45-4C5C-901F-A0705906C1CC}" type="CELLRANGE">
+                    <a:fld id="{634C5B9A-7BAC-4E66-8AB3-AB200C4A6B65}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16446,7 +16445,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFD9155B-68CE-43A6-BACA-A86ECC4D7B69}" type="CELLRANGE">
+                    <a:fld id="{A25772D9-A6F2-4E39-9BA9-EE985B32F837}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16480,7 +16479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D9DC3E2-016A-4EF1-B120-68B700BE992A}" type="CELLRANGE">
+                    <a:fld id="{4CB0BC68-7613-4626-A574-994E851ADAA2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16514,7 +16513,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4F3AC37-8CD0-4032-AE28-B634DC0B7AD8}" type="CELLRANGE">
+                    <a:fld id="{2EA50019-A5CD-4127-91FD-8ADE485EEFEB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16548,7 +16547,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D51A3274-9945-448C-9094-277CF9BAF713}" type="CELLRANGE">
+                    <a:fld id="{FD584C68-BDD3-445C-802A-A73E0CDC3CFF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16582,7 +16581,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DF9D043-389A-435D-A3A5-C4655AAAC496}" type="CELLRANGE">
+                    <a:fld id="{F8C98301-FF03-47AE-9FC3-7E99603B5FDB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16616,7 +16615,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0257498F-96F5-446F-9DF5-41B32089D4EC}" type="CELLRANGE">
+                    <a:fld id="{694F634A-263C-4B2C-B052-A6B59D4CD24D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16650,7 +16649,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3FFAEF9-5ED8-4C89-BF39-2A3470494061}" type="CELLRANGE">
+                    <a:fld id="{55D074E4-8C2F-4709-A173-2927B8F703CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16684,7 +16683,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{207F7455-FA07-4E4D-98CC-7B7574257E05}" type="CELLRANGE">
+                    <a:fld id="{2DE3E795-2BBF-4757-BEC5-978FC81D87FA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16718,7 +16717,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48767707-FCEE-41DF-A6A0-567E8B395D57}" type="CELLRANGE">
+                    <a:fld id="{88C03041-D432-4612-A5E0-71957514B914}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16752,7 +16751,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F5D09CF4-7D9F-46F4-B9E2-2B33EDF9CE43}" type="CELLRANGE">
+                    <a:fld id="{7C56E59C-DD67-4998-986F-E792F9A8F22C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16786,7 +16785,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C842BAEB-5B90-4F4A-A452-A2E765097070}" type="CELLRANGE">
+                    <a:fld id="{82D1193C-EAFC-47B7-88FA-781877D0A0A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16820,7 +16819,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B40F68E6-D429-4A8B-90D2-9C79A0238CE8}" type="CELLRANGE">
+                    <a:fld id="{07652AAF-07CF-467C-B0BD-3D436D930A47}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16854,7 +16853,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9ADBEE8E-C751-453E-8330-3B8E5FD69CFF}" type="CELLRANGE">
+                    <a:fld id="{070A5D1F-0D67-46D0-85C3-014C0421B8BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17983,7 +17982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19F5EFEB-B01E-4369-B9DF-D907250E608F}" type="CELLRANGE">
+                    <a:fld id="{BB8DDE19-E9A1-41D3-B05A-AA11AA105983}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18017,7 +18016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4882C6FE-0C74-4CCD-B70B-C14E07747E44}" type="CELLRANGE">
+                    <a:fld id="{A3ED1D11-3BC2-4AE4-9A44-23937429D23F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18051,7 +18050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C2B0B21-971F-4A09-84B4-BC7AFA1AC798}" type="CELLRANGE">
+                    <a:fld id="{8486E237-383E-48D8-A068-A9A3660F0EF5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18085,7 +18084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD64B2E2-CEDE-45C0-A057-72BE26A86C0A}" type="CELLRANGE">
+                    <a:fld id="{51040089-2847-4438-8CC1-9BE10577B7E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18119,7 +18118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{497B2B62-290D-4D28-872A-F653F7410B6A}" type="CELLRANGE">
+                    <a:fld id="{A43B8282-932D-4787-8058-A39D8E43ACD6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18153,7 +18152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA8AE131-C3D7-42E0-A0A3-6DB39E64B663}" type="CELLRANGE">
+                    <a:fld id="{F8D915C0-B9AE-4A20-A3F9-1B79A91284D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18187,7 +18186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E311C80-B81E-4F45-9EF3-36C687E7FBFA}" type="CELLRANGE">
+                    <a:fld id="{1740AD7D-0E5D-48E8-8606-072B7B8DC8CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18221,7 +18220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4311BD22-F840-4D35-89AA-415C4835C321}" type="CELLRANGE">
+                    <a:fld id="{C875A91E-05DE-4422-8AB3-6F8F908B3333}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18255,7 +18254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DA05D59-773C-4B63-B3BE-DBF06D2496E1}" type="CELLRANGE">
+                    <a:fld id="{6FF669F3-66FA-4DF3-8E6E-AA3E00E4243A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18289,7 +18288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A09F692-7AAB-4305-B8C4-D024FF97C59B}" type="CELLRANGE">
+                    <a:fld id="{0439501F-6798-435D-B440-E321B40557E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18323,7 +18322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1248C68B-80D2-468C-98E7-1A690CCC6559}" type="CELLRANGE">
+                    <a:fld id="{801F655F-98BC-4290-8384-7C27AAE33051}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18357,7 +18356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F30F0C2-71FF-48E3-AB8E-080D0451EE79}" type="CELLRANGE">
+                    <a:fld id="{78888401-E96C-4069-91B9-779A9F1E474D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18391,7 +18390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D61E1F21-4676-456B-81C9-EFF578A5716A}" type="CELLRANGE">
+                    <a:fld id="{9F045BF4-807F-491B-BBBE-97C61CB7DF0B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18425,7 +18424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38849419-56BF-4088-9AC8-B094E01406C8}" type="CELLRANGE">
+                    <a:fld id="{670CFBEA-B3FB-4652-9D1C-4AAFCD7EFC12}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18459,7 +18458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BAEC70F9-FE3A-442B-991B-2167DC1BCC6E}" type="CELLRANGE">
+                    <a:fld id="{E131DCBA-90FD-4382-A2EB-C1AEA60F6536}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18493,7 +18492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{285E0C50-834B-472B-9A8F-EB712586EF99}" type="CELLRANGE">
+                    <a:fld id="{C0E9906F-36A2-47CC-966A-18225EF324A5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18527,7 +18526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71E2DAAB-40C3-4B48-A709-E8FB0856E1B9}" type="CELLRANGE">
+                    <a:fld id="{96A39E8E-DF1A-46B3-9998-1DE43ED9E71F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18561,7 +18560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10D29976-09ED-433F-9314-06BDDC92A036}" type="CELLRANGE">
+                    <a:fld id="{DA418F88-9040-4B9D-BF59-335A6579FA6F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18595,7 +18594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9017D26C-2AB2-41E5-9EBF-4B5B7EEFDD7A}" type="CELLRANGE">
+                    <a:fld id="{9BFF736E-E244-4498-BCA3-AA010FDB4464}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18629,7 +18628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C2D1ABB-EB75-4C0F-B042-F544201D1906}" type="CELLRANGE">
+                    <a:fld id="{12E21412-6E25-4195-8FE8-39A620A27E5D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18663,7 +18662,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{431E5B80-DE25-488F-B9C7-2F495C45B760}" type="CELLRANGE">
+                    <a:fld id="{3ECC8B6E-205E-4CC0-A57C-A849EECA9FFA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18697,7 +18696,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A89DE8B-C702-4972-BBBC-C780B1590FDB}" type="CELLRANGE">
+                    <a:fld id="{A6C11E0E-FAD4-45BD-87E1-94C1B2138242}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18731,7 +18730,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4958EE1A-29B1-4A9D-A2CA-2BA9C8EB5B35}" type="CELLRANGE">
+                    <a:fld id="{0D71A091-303B-4818-A34F-FA881B5798E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18765,7 +18764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E7443EB-C0F4-4D77-ACDB-CFCF32F2DAD4}" type="CELLRANGE">
+                    <a:fld id="{A4E07E79-54D0-47BF-A232-5CB77DBFFE7C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18799,7 +18798,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{732B104B-6AD9-4DD7-818F-10B0BC4F10C3}" type="CELLRANGE">
+                    <a:fld id="{51F50C5F-B0DA-40FE-ABA4-F338FB233E2A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18833,7 +18832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9D64B88-9C45-4D95-8A86-812C4807DB76}" type="CELLRANGE">
+                    <a:fld id="{53547F64-A614-443B-99DE-06C073E004C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18867,7 +18866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBAE0E89-4E0A-451C-A36B-6C2965926447}" type="CELLRANGE">
+                    <a:fld id="{0090DDEE-68E1-4D78-A585-2B7F956059BB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18901,7 +18900,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF26AD9A-A78B-47EE-970C-DD6DD4AA1087}" type="CELLRANGE">
+                    <a:fld id="{4FC6B445-74F1-4348-962E-76017D4EBA1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18935,7 +18934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B95F321-6D25-4AA6-ABB1-4B77A7D7173E}" type="CELLRANGE">
+                    <a:fld id="{BB85DB3D-8D4D-4EDD-B730-2D254FD54E99}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18969,7 +18968,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2CB92AE-2EC1-442A-BD12-AE0B375C4487}" type="CELLRANGE">
+                    <a:fld id="{BEB2DE29-0459-4DED-9A39-657200B1CF89}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19003,7 +19002,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25213C81-4EC1-4841-91C5-7A9C82753F77}" type="CELLRANGE">
+                    <a:fld id="{581651BD-862E-4C6C-8BAF-4CC085B352F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19037,7 +19036,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA6CD739-5191-4068-A86A-0EB86C36058C}" type="CELLRANGE">
+                    <a:fld id="{6EF5F712-8CDC-4ACC-BBE3-110B532A1DA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19071,7 +19070,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{447BACC6-B21A-4A60-9D8B-71B36D4194B3}" type="CELLRANGE">
+                    <a:fld id="{4BF23041-B0AF-44C0-AA8F-17CB754705D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19105,7 +19104,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12547DB2-BA59-42C6-A0D9-33C8D2F0C0ED}" type="CELLRANGE">
+                    <a:fld id="{7664335C-C5D5-46C2-8258-99BB648C06E3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19139,7 +19138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67A2EE09-9AFF-4C40-A2FA-BE251617A91C}" type="CELLRANGE">
+                    <a:fld id="{95BC2595-8045-46F6-B4B5-BBE6911F9952}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19173,7 +19172,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6409AD80-AA34-4B5C-A306-6A3DA8253335}" type="CELLRANGE">
+                    <a:fld id="{BA1076B5-7AAC-48A0-AE66-5F3E64A91166}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19207,7 +19206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5960437-3425-4608-BA92-BE91931467B9}" type="CELLRANGE">
+                    <a:fld id="{CB5F226C-3A94-4488-9F8F-29C86CA07404}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19241,7 +19240,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C68DA13-4887-4129-9288-4773C0725A9E}" type="CELLRANGE">
+                    <a:fld id="{F0AD58D4-6C12-4337-8452-4D6712784F16}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19275,7 +19274,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5DD8716-10FA-42A3-8B07-FD3F99A42BFC}" type="CELLRANGE">
+                    <a:fld id="{99540149-D14E-4375-A340-A75451B3A0A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19309,7 +19308,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F21B530-9B51-4EDF-B129-AC353B8B9A60}" type="CELLRANGE">
+                    <a:fld id="{9E12A3C4-E29D-4343-8405-9D55CFBA9BA7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19343,7 +19342,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9EE23A2-387B-4FE6-B115-47374C80269A}" type="CELLRANGE">
+                    <a:fld id="{2E01D9C3-F53F-4AB4-9CED-13211680E4A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19377,7 +19376,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69A4F35E-821E-4A91-947A-875C842C1917}" type="CELLRANGE">
+                    <a:fld id="{972EC5E6-4141-48B7-8BAF-3F4D358FED9C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19411,7 +19410,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{483AEB77-6F8F-4EBE-BA9A-0B7FF1C89964}" type="CELLRANGE">
+                    <a:fld id="{8B3494F4-E3C2-4087-96AE-FCBF93CC09AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19445,7 +19444,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB075FA7-E014-460B-A91A-D42B82CE68D4}" type="CELLRANGE">
+                    <a:fld id="{459C2C29-FD38-48D3-A106-C3044ADECFF1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19479,7 +19478,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F5F8E9E-C3E2-4748-A814-0B1B92F0B8B0}" type="CELLRANGE">
+                    <a:fld id="{4719251F-DFF1-4373-8D0A-565E0A0E0E90}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19513,7 +19512,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE693941-671A-4C4C-AFB3-8C365B02D248}" type="CELLRANGE">
+                    <a:fld id="{4BA56940-A495-4617-B221-1CBF78ABEDC6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19547,7 +19546,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C862FBA-ADF4-4FA1-9D08-55FEED5755A0}" type="CELLRANGE">
+                    <a:fld id="{B5155F3D-71D2-4B69-A07D-F477777B91DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19581,7 +19580,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42EB0EFC-2750-4D4C-9CCB-B31615AA6972}" type="CELLRANGE">
+                    <a:fld id="{62B7E1E4-FBAF-402E-B9E4-6BBB108AFF7C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19615,7 +19614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEB3F92A-FB6C-445E-AD56-FFCE495B6AEF}" type="CELLRANGE">
+                    <a:fld id="{AF21AB89-7954-4E11-BE0E-7D36613C41D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19649,7 +19648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8F9DBC9-D0B0-4576-8E05-0E2E2B5782DC}" type="CELLRANGE">
+                    <a:fld id="{8E212BC3-CA6A-45EC-87C2-DC62054F2337}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19683,7 +19682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E6CF050-1D9B-4CB2-8EB1-97F88231202F}" type="CELLRANGE">
+                    <a:fld id="{D14A6406-1D21-4847-9288-1EA53C1E7DD2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19717,7 +19716,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F556F4D3-C5DD-451C-8E72-9A3EEC358111}" type="CELLRANGE">
+                    <a:fld id="{137ABE7E-4B72-47C1-94E0-DF2500FF65A8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19751,7 +19750,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C25D4E8-F13B-4EA0-88E9-CA6D05DC6CC2}" type="CELLRANGE">
+                    <a:fld id="{7D458CD2-3A96-4C29-8567-227DF62A3906}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19785,7 +19784,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24208EA9-1CFF-4C6E-A6AC-95ABC675586D}" type="CELLRANGE">
+                    <a:fld id="{3C3E0380-F289-441B-B767-F88526C2814E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19819,7 +19818,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1995D79-BA3D-4A05-84D4-9980C63CA9B3}" type="CELLRANGE">
+                    <a:fld id="{8D2CB259-DC7A-434A-BD44-EAD5CCC91392}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19853,7 +19852,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6488220C-FC98-41CE-86BD-645347F5842A}" type="CELLRANGE">
+                    <a:fld id="{6C1D0563-7540-43F3-B86F-2B41EEE84FA5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19887,7 +19886,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF02B5D7-3E98-48E7-93FF-51DA8F5ADD8C}" type="CELLRANGE">
+                    <a:fld id="{A62B90C7-3A89-4B13-8758-F5540470153C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19921,7 +19920,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E9D0729-184F-411D-A4B4-A3E0777900A4}" type="CELLRANGE">
+                    <a:fld id="{F93AD5BC-2AA6-4AB2-B734-3035468346B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19955,7 +19954,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7686753D-A096-4256-9F7E-9C0A8008D78F}" type="CELLRANGE">
+                    <a:fld id="{3639BBB8-70D9-48D1-8237-BB317EF32958}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19989,7 +19988,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43DE4799-D158-4E43-9563-05CACD9019C7}" type="CELLRANGE">
+                    <a:fld id="{8A8B5A22-5FC6-4BFB-B97F-3C7BC9A1D9F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21118,7 +21117,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87C38B31-F3B2-460E-80E5-AF46AD33C0A7}" type="CELLRANGE">
+                    <a:fld id="{CD4CF5B9-10E2-474E-BB33-CCBAEBA8475B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21152,7 +21151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B092AD1-9030-45E6-A2B0-7D20BCF68FBE}" type="CELLRANGE">
+                    <a:fld id="{A5F5C20A-C861-4227-A0CD-698AD6EEC39B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21186,7 +21185,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9119F5FC-6614-4A98-90A9-1B8F7AF65463}" type="CELLRANGE">
+                    <a:fld id="{0E267AA1-D1F0-467C-8EAC-EEFE45830A76}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21220,7 +21219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{347AB941-4A9E-4D56-8302-DD69ED3FA69B}" type="CELLRANGE">
+                    <a:fld id="{54A0355F-C59C-428A-A809-FABC489EA609}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21254,7 +21253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96920D93-DEEA-49A7-B555-93E7249B391B}" type="CELLRANGE">
+                    <a:fld id="{98878B59-7AC3-4588-8ED6-50835AB68522}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21288,7 +21287,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A70FE1F9-A3E0-4BFE-A32C-E8FC15A54725}" type="CELLRANGE">
+                    <a:fld id="{F891AC7F-2C00-4138-AD3E-19C021A6BA7E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21322,7 +21321,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FC1B051-6B4E-4ECD-B049-FEB98AD8CD74}" type="CELLRANGE">
+                    <a:fld id="{BEC1E0D6-8AFF-4CD6-98BB-6756E8AE20D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21356,7 +21355,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D160F28-1CA8-451E-AE0B-55525F641C25}" type="CELLRANGE">
+                    <a:fld id="{70BBC2DE-0107-4B11-BEFF-88BC7DB640A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21390,7 +21389,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94F0D27F-52D5-48A3-8246-9916380F1388}" type="CELLRANGE">
+                    <a:fld id="{8C74EF17-7F45-46E3-88C0-328F4DAF379D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21424,7 +21423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54090056-F75A-4702-BD72-3EE9451E9301}" type="CELLRANGE">
+                    <a:fld id="{2D08B833-0C7C-40B6-BF34-600EDA05F5D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21458,7 +21457,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8759AB19-02B5-4F41-900B-01B254FF34B2}" type="CELLRANGE">
+                    <a:fld id="{45561195-DE3D-4E27-8D80-32EF977837BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21492,7 +21491,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10D397A0-583A-4588-908C-52AD5BF3AF3E}" type="CELLRANGE">
+                    <a:fld id="{05DD000E-8DF2-4440-819A-74B2DDE409AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21526,7 +21525,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16333EFB-1D98-4435-8250-3720E0622224}" type="CELLRANGE">
+                    <a:fld id="{B1338032-8767-48E0-8BCE-606AFA35B715}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21560,7 +21559,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{389B5E8C-FFAB-44E6-B1F4-7B5AF6648D8B}" type="CELLRANGE">
+                    <a:fld id="{D1248CA3-E963-448E-9234-72EC6D3291A5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21594,7 +21593,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5774F2E-24E0-4269-A4E0-C0220EB82407}" type="CELLRANGE">
+                    <a:fld id="{C140CB6D-E3F2-4EF4-8A6F-94A45478300B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21628,7 +21627,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36BE42F4-3075-4777-A9CE-7DB0E3AECB16}" type="CELLRANGE">
+                    <a:fld id="{32769A82-4FF1-4798-A590-E1C89490C0E3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21662,7 +21661,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F60B756-9840-4887-8858-988254CCEC09}" type="CELLRANGE">
+                    <a:fld id="{EDFAF25A-4865-4781-87D0-E7F68B29654B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21696,7 +21695,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D680E566-126C-4906-8811-835B6C56DEC7}" type="CELLRANGE">
+                    <a:fld id="{98D1E5D8-50E1-439D-BAA0-5465D60686F2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21730,7 +21729,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E83E969-E936-43FB-9436-7C90B2EBD9EB}" type="CELLRANGE">
+                    <a:fld id="{8FE53821-2B9C-44E7-BCA9-C7DB257A1BD9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21764,7 +21763,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D3BF448-A03A-45A0-A331-2F7171F0C67F}" type="CELLRANGE">
+                    <a:fld id="{AFB849B7-8CD2-424E-A7B5-FAD7DF3F818D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21798,7 +21797,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{257C5479-7272-4F5C-A5B1-27D0AD779BBE}" type="CELLRANGE">
+                    <a:fld id="{24F9E0CD-B647-4254-BD3C-D303E30A0516}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21832,7 +21831,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9F1CFDB-75F9-459C-8D46-3C600B0CACDB}" type="CELLRANGE">
+                    <a:fld id="{C3A72EC4-BBB3-41B1-B0CF-F5B1677CEA8B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21866,7 +21865,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C36D604B-64BD-4EA0-9A48-8F42731161E7}" type="CELLRANGE">
+                    <a:fld id="{881F20FB-B4AA-4E66-8DCF-6E70A4439693}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21900,7 +21899,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{235F16B5-FFF7-483D-8A71-7166B8357C62}" type="CELLRANGE">
+                    <a:fld id="{F496BD8D-B48C-48F0-BB76-AC83679FF701}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21934,7 +21933,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F591A868-B996-4839-B8ED-44094D5E7CDB}" type="CELLRANGE">
+                    <a:fld id="{5B8C34C1-E2E0-4372-80CF-E533F05F6670}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21968,7 +21967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8321B07F-E347-4964-B69F-14D8B5579E1E}" type="CELLRANGE">
+                    <a:fld id="{527FC060-084F-466D-AE70-2F844987F044}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22002,7 +22001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DCFCDFB-1BD7-4B88-BEFA-F653F9CD7570}" type="CELLRANGE">
+                    <a:fld id="{3E863756-1846-4E50-AEA0-B15B8E65B1D5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22036,7 +22035,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47B3A801-5284-469D-8114-C4999D85C4B3}" type="CELLRANGE">
+                    <a:fld id="{F533A360-C7A6-4812-B850-66C2E4A7425D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22070,7 +22069,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DDD608F-796B-4A61-8754-0C807DE4F655}" type="CELLRANGE">
+                    <a:fld id="{B5BC24C9-3D81-48C7-8909-463E9F694741}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22104,7 +22103,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BFFE7025-B9A7-4C07-AA6E-33E7C8EF4C85}" type="CELLRANGE">
+                    <a:fld id="{BCA35BD6-B59E-47A0-B18A-CDCB06641C2D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22138,7 +22137,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C1802FE-5667-447D-9384-4BAC924D9CDA}" type="CELLRANGE">
+                    <a:fld id="{CD2A7751-B776-463F-8C3B-9E36E82098F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22172,7 +22171,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7D63620-EDA0-4707-9CEE-6547EE77778D}" type="CELLRANGE">
+                    <a:fld id="{ADE00D18-B627-405A-8EEE-ABD72DBCB7A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22206,7 +22205,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56A4D6BB-9BA1-45F3-BD2C-D5EAB610CEA3}" type="CELLRANGE">
+                    <a:fld id="{707722A2-2245-454A-AE9B-DB0238898D5E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22240,7 +22239,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1030FC61-4272-43C4-A0DB-DA66BA4A65E7}" type="CELLRANGE">
+                    <a:fld id="{222DA0E2-26E6-4A74-891E-70DFBCA2906D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22274,7 +22273,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C980B1EA-58BE-43A5-803E-E5228A74F364}" type="CELLRANGE">
+                    <a:fld id="{A66C318C-58FA-4104-B541-B35B40A84C7D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22308,7 +22307,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2DB23B0A-E181-4DDC-B277-9BB8132329A1}" type="CELLRANGE">
+                    <a:fld id="{94CCF816-2DE7-4F6E-BCF0-51C1DC364C70}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22342,7 +22341,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89967B9E-962A-4B43-96C9-0716F1A621BC}" type="CELLRANGE">
+                    <a:fld id="{77C3CDED-59DE-451F-BCFB-7072A19C9C93}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22376,7 +22375,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5873B5DA-D3FA-466D-9D32-B0A619C6EF4D}" type="CELLRANGE">
+                    <a:fld id="{04334F99-B057-48E0-B74C-DD83A5A4F82F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22410,7 +22409,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D496935A-8CD1-4E20-BDCE-B7B8ED1E7A72}" type="CELLRANGE">
+                    <a:fld id="{510A7485-C910-4275-AD7A-76EC08471A9B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22444,7 +22443,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6BA636FE-87F8-4BA2-ACCB-0982ADD2C498}" type="CELLRANGE">
+                    <a:fld id="{CABD10D2-E280-46BC-AE05-39106508CFD2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22478,7 +22477,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C7E3F31-DA31-4D4B-99F6-0D27162DB495}" type="CELLRANGE">
+                    <a:fld id="{D1A58ADA-4C14-4032-9CD3-B79964BCF581}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22512,7 +22511,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58139147-0FEF-48C0-9C13-BD4880735E0B}" type="CELLRANGE">
+                    <a:fld id="{4CF0B1B3-724B-4379-A2BD-5376F3A259AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22546,7 +22545,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0B9DEDA-131C-4020-9707-16E4CC345E92}" type="CELLRANGE">
+                    <a:fld id="{DFBE97AF-8D70-410A-912A-01213BAB001B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22580,7 +22579,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE36D7E5-FD7F-4AC9-AC65-C29A71967585}" type="CELLRANGE">
+                    <a:fld id="{8F57BCE1-FA68-4598-A0CE-980CB51276FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22614,7 +22613,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{212076F1-4864-4D96-9003-F24152B88C25}" type="CELLRANGE">
+                    <a:fld id="{E80043F3-A45D-4E87-B7C7-462655D2C387}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22648,7 +22647,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7CB257D-6A44-4F61-996E-25D39F3C1588}" type="CELLRANGE">
+                    <a:fld id="{6BA3F212-D38F-4318-ABC8-A9FD5C91236C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22682,7 +22681,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A98588EB-5335-4AC5-B074-3CF7C8C350A3}" type="CELLRANGE">
+                    <a:fld id="{E24EBB23-E425-426E-ADD0-EF181277EB0C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22716,7 +22715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63804F65-FCA2-44C6-89CE-34D8B27D439B}" type="CELLRANGE">
+                    <a:fld id="{C7436FBF-A2F7-49DC-8B83-04B636DAA670}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22750,7 +22749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{533F7EA9-3F35-4C82-81D2-0BBBC81FE568}" type="CELLRANGE">
+                    <a:fld id="{A9DE7AFA-E76D-49F3-BE24-0F87E738CC9F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22784,7 +22783,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D769C2D4-0529-49C8-B804-BE45B707B7E0}" type="CELLRANGE">
+                    <a:fld id="{1634024E-7F81-4232-8467-6D8299DF8082}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22818,7 +22817,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7378973-1C80-449B-8AD2-F4ACC02E4724}" type="CELLRANGE">
+                    <a:fld id="{89C66C7D-C6BE-4A6B-B5B5-1611CF22EA1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22852,7 +22851,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47D5BEC3-27EC-47D4-9CD7-E0203BCFABA7}" type="CELLRANGE">
+                    <a:fld id="{8B929171-931C-4A2C-83CC-06EEA9368762}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22886,7 +22885,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DFC05F2-8112-4B92-A25A-51F3C21D6AE9}" type="CELLRANGE">
+                    <a:fld id="{2368B6B2-ECFE-48FE-A8FD-74D5541C2557}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22920,7 +22919,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCD211AC-452C-41B5-B738-0DD55E4E5452}" type="CELLRANGE">
+                    <a:fld id="{CE07F999-6B85-4F2B-A0CB-FB1D0BA120EC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22954,7 +22953,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C77A8FD3-AD94-4284-BA24-E74681B5E3F0}" type="CELLRANGE">
+                    <a:fld id="{A88CB15C-6B8D-4860-A93A-9E0EA5BBD105}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22988,7 +22987,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B19190E-2F8C-47C8-A3D9-CFB988593C3D}" type="CELLRANGE">
+                    <a:fld id="{C796AD2D-F951-45B6-AF85-23AAD1835048}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23022,7 +23021,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4160E53-75D8-4955-BAE1-DD2E6E1292C9}" type="CELLRANGE">
+                    <a:fld id="{A693B949-4CE7-4870-92A3-6777E82885E2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23056,7 +23055,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACCBFC2D-B593-42BC-9DC1-C5F08C039569}" type="CELLRANGE">
+                    <a:fld id="{98CDD4BF-2DBA-40A0-9A9A-421962D02AEC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23090,7 +23089,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7DAFC5A0-BF71-488D-985E-65F6A7FAAB85}" type="CELLRANGE">
+                    <a:fld id="{DE0B02E7-9B52-4EAB-8F94-E978875ADDFA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23124,7 +23123,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E75B683C-F7EF-4369-88CA-783CF58C1805}" type="CELLRANGE">
+                    <a:fld id="{DABA5CE1-9456-44BC-841E-45293F0A53F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -28995,7 +28994,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{12FFEA56-D690-4F65-A8CE-5A70D0B0245D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29094,7 +29093,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656674" cy="6282070"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -30359,7 +30358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/Final_Draft_Position_Graphs.xlsx
+++ b/Final_Draft_Position_Graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Desktop\MQP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A204C5-166A-4703-949D-48D405D3052F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E128888C-E9DA-4067-A0F5-BE5A99F71317}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" tabRatio="881" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clustered Normalized Metrics" sheetId="16" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Draft Position</t>
   </si>
@@ -138,6 +138,15 @@
   <si>
     <t>Normalized Fantasy Points</t>
   </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Average salary</t>
+  </si>
+  <si>
+    <t>Normalized Rookie Salary</t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,17 +200,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,19 +263,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -278,19 +295,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -331,71 +342,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -474,71 +441,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -617,71 +540,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent3">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -760,71 +639,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -903,71 +738,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent5"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:dLbls>
@@ -978,7 +769,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94416AE9-822C-4EEF-9DA2-9FCE8FAC8AF6}" type="CELLRANGE">
+                    <a:fld id="{97F809E9-7388-4374-9F74-1A7E8D5F62FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1012,7 +803,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C22A7A4-E15B-4CC5-975A-60D907AD0112}" type="CELLRANGE">
+                    <a:fld id="{38300425-970F-4624-9CE1-6C6FED66EF50}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1046,7 +837,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{586B9C4A-354F-4907-A3B3-6879D2842B58}" type="CELLRANGE">
+                    <a:fld id="{A9C6E3ED-5051-43EF-ABBA-825B26432C91}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1080,7 +871,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5036ACDC-388D-44E2-9013-6DC6475C21CA}" type="CELLRANGE">
+                    <a:fld id="{C8B72371-0C80-40B9-8037-E5C8C7AFF49C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1114,7 +905,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4648BC33-0B7F-49E3-AB9F-7FB301A175D8}" type="CELLRANGE">
+                    <a:fld id="{E69FB6FF-3447-4241-A911-8AAACFA39904}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1148,7 +939,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{286EF292-8F91-4A36-869E-5288C796D930}" type="CELLRANGE">
+                    <a:fld id="{D2E3E295-F0A5-4517-B7FE-03216B19B9BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1191,8 +982,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1320,71 +1112,27 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent6">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent6"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -1445,6 +1193,111 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-9515-4769-B245-62EBA1393401}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Clustered Data'!$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normalized Rookie Salary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Clustered Data'!$A$18:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Clustered Data'!$I$18:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.050458000665927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.460273717512109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.60928434296563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.65168216949921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.65168216949921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E352-412C-9053-222B5C3251DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1470,9 +1323,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1487,10 +1340,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1518,10 +1372,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1541,10 +1396,12 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1555,8 +1412,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1584,9 +1442,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1601,10 +1459,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1632,10 +1491,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1655,10 +1515,12 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1669,8 +1531,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1695,16 +1558,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="1.7778306079217026E-2"/>
-          <c:y val="0.93480206365099405"/>
-          <c:w val="0.96884450078632955"/>
-          <c:h val="6.5197936349005975E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1720,8 +1573,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1738,28 +1592,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -4724,7 +4567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D479198A-0BDB-4774-8362-AF154EDAC0F3}" type="CELLRANGE">
+                    <a:fld id="{C282E9CB-B92F-4911-B21C-C411BC220FC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4758,7 +4601,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D838CACB-B153-4B4A-B157-738C13C7B671}" type="CELLRANGE">
+                    <a:fld id="{BF76287B-3E3D-40B5-A300-1D2C06F49042}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4792,7 +4635,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1394FBB-33F2-4F85-87BD-9424612A3D00}" type="CELLRANGE">
+                    <a:fld id="{42D57BC5-24F0-48E7-B9FC-3297A00B03B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4826,7 +4669,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A010D4A-AF88-4378-A1B3-23AEF83020E6}" type="CELLRANGE">
+                    <a:fld id="{9054A8F2-6C7F-4311-B464-F33605F7F914}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4860,7 +4703,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F4B68A1-EDEE-4F38-8108-16B3FD1E6CDB}" type="CELLRANGE">
+                    <a:fld id="{EBDA8EB1-6F5C-4D22-9FE2-285397B6B325}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4894,7 +4737,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{464F31F3-3300-4517-8730-51D9F5285FA4}" type="CELLRANGE">
+                    <a:fld id="{AE73FA04-39DF-4DC8-ADCB-9B4477A62DBC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5436,7 +5279,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FC80F79-F131-4C04-A43D-207687AC9200}" type="CELLRANGE">
+                    <a:fld id="{D65D1625-6073-44EC-9FAF-F7D8C2D0E754}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5470,7 +5313,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC15BF6E-91F3-48F1-92D9-788998D2CE20}" type="CELLRANGE">
+                    <a:fld id="{EEABC4D9-7F71-4468-930E-11BD8431603B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5504,7 +5347,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{233E1EB0-4749-48E3-A0F4-602DD246F186}" type="CELLRANGE">
+                    <a:fld id="{96AAFBCB-CE14-432A-B646-205D2C4BD833}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5538,7 +5381,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A484D97-4C00-41CF-AEC7-CDD5F38118D2}" type="CELLRANGE">
+                    <a:fld id="{579450BC-5ACF-40C0-A1B5-6EE391551FE1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5572,7 +5415,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00DA3D91-F043-4613-B7EA-B7BE6BB825F7}" type="CELLRANGE">
+                    <a:fld id="{C2A1513F-E16A-4DD9-A844-7B86F326BA4B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5606,7 +5449,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8B5099E-F1D9-4374-86F0-B1276472DEA7}" type="CELLRANGE">
+                    <a:fld id="{12548D0E-EF58-42D7-9883-0ED06E11417C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5640,7 +5483,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC81939F-82C7-4ECC-A252-5CC006F2679A}" type="CELLRANGE">
+                    <a:fld id="{038867AE-3B5B-4298-A08B-98A647789B13}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5674,7 +5517,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66750CCC-79AC-4C6E-AFBD-4969BC8C1914}" type="CELLRANGE">
+                    <a:fld id="{6579C30E-DB5B-4EBA-B39C-905393185868}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5708,7 +5551,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0EBC327-3222-402F-9ACC-5A1C56181283}" type="CELLRANGE">
+                    <a:fld id="{28B288FE-CEAE-4D30-8A16-B8CC24DFF2A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5742,7 +5585,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{572829F6-53E7-4DC4-83E2-EFC80EC19DFE}" type="CELLRANGE">
+                    <a:fld id="{72029052-3150-4CBD-9E6A-F8F09AD28C79}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5776,7 +5619,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF91CD63-A278-44DD-8E19-3DED42A4815D}" type="CELLRANGE">
+                    <a:fld id="{07C3B307-4466-4EA7-939D-A85D32309DC3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5810,7 +5653,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1B9A4E4-DEBA-4A81-829D-10B607EDA162}" type="CELLRANGE">
+                    <a:fld id="{07DFFDAE-032B-4BB4-B8AF-DFB8DD461CC2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5844,7 +5687,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C93A3E95-A296-4B05-A9AF-3038AC578803}" type="CELLRANGE">
+                    <a:fld id="{126F0583-8F10-47F9-BC76-F44C0E4AAB26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5878,7 +5721,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2887F905-2B5D-4A61-928D-346CCA999FEA}" type="CELLRANGE">
+                    <a:fld id="{4E426227-573F-4A0A-AD88-55DF34A40915}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5912,7 +5755,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CFD2306-6D21-4D83-9072-A836B94965A2}" type="CELLRANGE">
+                    <a:fld id="{996F9B78-3958-4EB2-83E2-EB5480FC01EB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5946,7 +5789,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74210ABE-415B-46A6-9EE3-711DB37AF5F7}" type="CELLRANGE">
+                    <a:fld id="{912C0921-4F44-491C-AB33-F4DCD6F843CA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5980,7 +5823,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19683799-4ECD-484B-B7EF-D1BBEA17E823}" type="CELLRANGE">
+                    <a:fld id="{A470C536-BBFF-47F2-9C20-F1A41C760B77}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6014,7 +5857,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{675361C6-29A1-4396-B547-281ACB4ECF1B}" type="CELLRANGE">
+                    <a:fld id="{DCAC4E24-BF6E-436F-81CE-EE68A4F4866B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6048,7 +5891,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{696AD6CD-B400-4742-A7CA-5ECCD1C34561}" type="CELLRANGE">
+                    <a:fld id="{772CB5AD-5FD6-43D3-850B-3F71DA4AD329}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6082,7 +5925,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1B64284-3C10-4C60-BAAF-AC16C8CC370C}" type="CELLRANGE">
+                    <a:fld id="{22212D71-FD12-4F5B-9C96-92FD7E2B14D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6116,7 +5959,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5819031-7430-4838-A7F2-22CC8FE2B0E4}" type="CELLRANGE">
+                    <a:fld id="{66680B29-79E1-4080-A220-7B479E29B705}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6150,7 +5993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D532238-0822-41C7-A404-E437BEDA31D3}" type="CELLRANGE">
+                    <a:fld id="{92B2B13E-AC60-4E3F-AC4A-38D726818CFB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6184,7 +6027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C094F49-466B-43BC-B0D7-0F15E903966B}" type="CELLRANGE">
+                    <a:fld id="{49EA5844-20B0-4651-ADE5-72FC2C699E26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6218,7 +6061,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA9B6F99-071F-4AC3-96D6-47E6FD78ED7F}" type="CELLRANGE">
+                    <a:fld id="{7EB0FD23-F48D-40C6-B765-09B9535938B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6252,7 +6095,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{378248C6-EC9C-4D2F-8410-FEEB7D855D39}" type="CELLRANGE">
+                    <a:fld id="{29ACBD4B-ED3A-4FDF-9BF4-BF63A90FD7AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6286,7 +6129,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A27E2E7E-338C-4270-8BB4-12E058B15927}" type="CELLRANGE">
+                    <a:fld id="{FBB53265-C187-44A2-85C4-6DFFBB285843}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6320,7 +6163,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47646426-DB3D-4CFD-BE75-7BA2A5D17617}" type="CELLRANGE">
+                    <a:fld id="{3A4EB67C-E8ED-4436-8466-71726413E607}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6354,7 +6197,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4762EB56-5E07-44D4-B046-34F7563FC461}" type="CELLRANGE">
+                    <a:fld id="{795529FC-0F9C-4479-8AB6-75ADDECF343F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6388,7 +6231,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7603B40B-36E6-41DC-B94B-49AB8D7EEC45}" type="CELLRANGE">
+                    <a:fld id="{DE52E0CF-3C8C-4062-B249-EAE9E61C8388}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6422,7 +6265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{357D27D6-B52C-4338-B7E7-1BDE8E145C4B}" type="CELLRANGE">
+                    <a:fld id="{5C169140-09D6-492E-80C4-4693EC5B0305}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6456,7 +6299,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12DB852E-D5FB-4A2B-B7A5-A9BE1FFAC475}" type="CELLRANGE">
+                    <a:fld id="{C34FB37C-E73A-4DF1-A558-5FC1D1D0FCFE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6490,7 +6333,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3ED8FB63-BDE4-4FB5-A988-E3C062654285}" type="CELLRANGE">
+                    <a:fld id="{C474187C-6032-4618-B266-0F06779E7867}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6524,7 +6367,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{337FD06B-C6CC-4902-A88F-E4CAB1848A49}" type="CELLRANGE">
+                    <a:fld id="{F5B29B63-F588-47C3-AAC1-0A77C28C4541}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6558,7 +6401,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C45A75F-A61C-46D6-A5B3-A0C1AB30C8BB}" type="CELLRANGE">
+                    <a:fld id="{EF03DB5E-14A1-4CA3-A4FC-9DD6AE6EC8A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6592,7 +6435,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E9BF6F5-5DB2-4E10-85C5-B886DFC1B1AD}" type="CELLRANGE">
+                    <a:fld id="{E6026872-3A8A-44EF-8431-89D019D61CD0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6626,7 +6469,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5494E0E3-67BF-4D0C-BFA2-C67D41639848}" type="CELLRANGE">
+                    <a:fld id="{282297BE-7A36-4AEC-980F-5BB24E48E682}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6660,7 +6503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCF7A066-C01C-4532-9D5A-AFC266FA43BA}" type="CELLRANGE">
+                    <a:fld id="{47CC1B6C-0F48-42F2-A1C1-86D18C86A4F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6694,7 +6537,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5357A749-B12D-49F4-8968-6E337AE6B92A}" type="CELLRANGE">
+                    <a:fld id="{91F6B8E3-0402-4888-A073-1D59B7ABF4BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6728,7 +6571,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F8524E9-E4F0-4212-82AE-633E0859A8EE}" type="CELLRANGE">
+                    <a:fld id="{7FD05968-00F8-4511-A62B-D40AF7543E56}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6762,7 +6605,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43B7F7B6-BDE4-4A55-A83D-7136D945C4E5}" type="CELLRANGE">
+                    <a:fld id="{58AC17B5-AC36-4CBC-AE06-E1AEDDD04A05}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6796,7 +6639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C28720A-4239-4DA2-A222-FB305B2ACDC5}" type="CELLRANGE">
+                    <a:fld id="{4CA0A6D0-0F99-4093-A10C-CF75E9E5E2E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6830,7 +6673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4EFC6FF-FFE1-40A7-8DBD-F5A111D5BCBD}" type="CELLRANGE">
+                    <a:fld id="{FC01B899-C926-4550-8DB4-E35BF00B108E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6864,7 +6707,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{665E44CE-18C0-47C5-A6FD-13AEB2F01DEE}" type="CELLRANGE">
+                    <a:fld id="{CBC61314-3828-4D10-AB0D-98FB32E12ED2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6898,7 +6741,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{204683DD-5189-40AB-B414-C4410B87C7C6}" type="CELLRANGE">
+                    <a:fld id="{BDD6FDCE-25BF-439D-8E0D-35565BDADCE5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6932,7 +6775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AFABC14-4399-458A-9E84-7EFDE545A2BB}" type="CELLRANGE">
+                    <a:fld id="{F03B5E34-493F-4A99-B748-156DCC898056}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6966,7 +6809,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36790B19-C0B4-4D31-A923-B8B0303326DA}" type="CELLRANGE">
+                    <a:fld id="{1A9A63BA-C399-4960-81BE-72D0E15579B7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7000,7 +6843,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B3A2CDC-FDBA-40DF-AE58-487C09D9A3D9}" type="CELLRANGE">
+                    <a:fld id="{ADCB1B19-5EDA-4AC5-B792-14EBDB4C82D4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7034,7 +6877,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1988E395-363E-4463-974D-629F497694AB}" type="CELLRANGE">
+                    <a:fld id="{2EBF5492-EB02-4DEC-B1DB-A9F1C4756BF5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7068,7 +6911,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3060224E-20D4-4EF2-98A1-4592B7A1F44C}" type="CELLRANGE">
+                    <a:fld id="{92C313AF-58D5-4447-BFB9-74AC04C019F1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7102,7 +6945,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E9EEAA4-EE60-414A-A7C0-D43691E41762}" type="CELLRANGE">
+                    <a:fld id="{8302D965-12A0-4FDB-86EA-D95DD1609E77}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7136,7 +6979,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D62E27E-41F4-4950-81BA-C3AC3364BAA9}" type="CELLRANGE">
+                    <a:fld id="{E92AFF9D-A9BF-4BB3-A5C1-B56AC678B85F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7170,7 +7013,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{844733F1-BBAE-4CCC-8B4F-D14491A8FA86}" type="CELLRANGE">
+                    <a:fld id="{2B0DB332-E694-4A65-8328-B9A5780A4F25}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7204,7 +7047,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C5ADCFC-B1B3-4866-BB18-59D8E1B67468}" type="CELLRANGE">
+                    <a:fld id="{02A40EF1-498F-4319-A369-92F5A74FEFC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7238,7 +7081,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A3AE7C6-27FB-4F41-8F69-A05D4372847E}" type="CELLRANGE">
+                    <a:fld id="{901C0AE1-1A9E-4603-9F87-6371F6B18B2B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7272,7 +7115,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEDFD575-13A2-443E-BE42-AA459213FBE0}" type="CELLRANGE">
+                    <a:fld id="{2EF781D3-CAA2-4275-95C9-20F29CF3EFCC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7306,7 +7149,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41D29C7D-B7ED-4DE3-9C14-B1F355F83877}" type="CELLRANGE">
+                    <a:fld id="{42F0C024-BFC3-4EDB-8806-5772416B05C6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7340,7 +7183,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF99F997-0F34-42E8-BB2B-722AB81302F8}" type="CELLRANGE">
+                    <a:fld id="{E52FC370-0913-4135-AE17-A18CD2BFBF31}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7374,7 +7217,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA4BA4E1-EF99-465A-A93C-FEEA4A233555}" type="CELLRANGE">
+                    <a:fld id="{A5DDD189-23FA-4344-994C-855D5155CCE1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7408,7 +7251,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D00EF8CD-83A2-4B9F-8854-055C6386B875}" type="CELLRANGE">
+                    <a:fld id="{5EFFEDCF-97DE-44D0-A8EE-F9AC9D421EBF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7442,7 +7285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13C6A4EA-0F4E-48B1-9FA3-C880C08AA79C}" type="CELLRANGE">
+                    <a:fld id="{5B763619-8A5B-4D74-94EF-9C6D03E4576E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8575,7 +8418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AED4DA74-0043-43CB-951F-E25731C825DE}" type="CELLRANGE">
+                    <a:fld id="{FD44A8C4-FE20-4D43-B942-39B3D3DA9BFD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8609,7 +8452,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D0A1DD8-73C2-4EDA-BF57-CFEA2E45A02A}" type="CELLRANGE">
+                    <a:fld id="{EE1A7216-B0EE-47B9-ACC8-15E5909D0F54}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8643,7 +8486,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35CA49B0-B87A-4EC7-8CDA-18AD0B02355F}" type="CELLRANGE">
+                    <a:fld id="{9E3CCE73-2EBC-48CE-8981-6042C24B956F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8677,7 +8520,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA3EAD88-F42F-4F70-B8F5-B0548EEB8335}" type="CELLRANGE">
+                    <a:fld id="{BD8EE113-4D3F-46F0-9479-82EBBB15C4B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8711,7 +8554,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF414876-D338-4138-802F-963F8F2E840C}" type="CELLRANGE">
+                    <a:fld id="{48CC43B4-4C7D-4CE7-B459-52C15ED46F0A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8745,7 +8588,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E02D5EA-058E-4623-8C8B-B313C0BBA0A7}" type="CELLRANGE">
+                    <a:fld id="{92960C5A-3777-419B-B532-5A2E72B49CEC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8779,7 +8622,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3524CA98-3A0D-4676-AC9C-74BAB3E88103}" type="CELLRANGE">
+                    <a:fld id="{74C17567-3333-4969-9B88-2B3A6709F5EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8813,7 +8656,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{898BFE0C-DAE6-4E50-86AB-50E76F1A71ED}" type="CELLRANGE">
+                    <a:fld id="{BC67A5A6-7307-4FA5-8288-9D85B093B531}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8847,7 +8690,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{303F6B98-FA17-4586-9ED1-917851689F95}" type="CELLRANGE">
+                    <a:fld id="{E9676F3F-FD96-48DA-8831-65F5D56C9E3D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8881,7 +8724,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6AAC30A3-D56E-471E-872C-313074083B3E}" type="CELLRANGE">
+                    <a:fld id="{84EC7CF8-62FC-4492-ABBD-60BEFB4B99EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8915,7 +8758,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28587279-E79A-4262-95A8-157D175CEEE0}" type="CELLRANGE">
+                    <a:fld id="{91C923EA-5FF0-4B8B-8759-66A18809E67F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8949,7 +8792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E17FB05B-0F32-4674-9EE2-AB76CF34E846}" type="CELLRANGE">
+                    <a:fld id="{3C017012-37D8-447D-A767-DA2B1D3BB069}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8983,7 +8826,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{233F7079-EC09-40C7-8738-940DF2C95F65}" type="CELLRANGE">
+                    <a:fld id="{5E95FD59-5DA5-431A-8D88-52E18F4547A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9017,7 +8860,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB450193-37CD-4A4D-B4E8-77319D216326}" type="CELLRANGE">
+                    <a:fld id="{1D53FD0C-ADD4-450B-809E-BBCD78E4F0C7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9051,7 +8894,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0F38783-FA3C-4D57-81E3-6B9AB79A27A2}" type="CELLRANGE">
+                    <a:fld id="{C4C56B2E-E10D-4B7E-802A-30F10054B0DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9085,7 +8928,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2F377AA-85AB-40E9-B674-255F736B32E4}" type="CELLRANGE">
+                    <a:fld id="{1C3A843B-1DBE-45F3-A6BE-FCCDB4B69A23}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9119,7 +8962,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58E0364C-1A33-4E25-AC91-2743A0AFD740}" type="CELLRANGE">
+                    <a:fld id="{1516D848-8C5E-45E6-AB39-20B9DF5F5ECF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9153,7 +8996,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE9E1C52-AD88-4CDB-B854-1B5D1D08B608}" type="CELLRANGE">
+                    <a:fld id="{CC09AB05-893F-4E89-B988-5276EF118DFE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9187,7 +9030,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10316184-E105-4DAF-8CA4-DA2C3C40F368}" type="CELLRANGE">
+                    <a:fld id="{B16CEA0C-8157-4030-83CA-621575CC38C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9221,7 +9064,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C67A479-8CAD-48DE-A123-6E280E40AE16}" type="CELLRANGE">
+                    <a:fld id="{AB9787E5-9059-4586-B56C-928CC52FFA1E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9255,7 +9098,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D048334B-7D97-4D6F-9CD1-DD32AF07774B}" type="CELLRANGE">
+                    <a:fld id="{EED6833B-CC5B-42C6-B365-E63CF73F2780}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9289,7 +9132,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E79DA0B1-3039-4F43-855C-1F3315FECF87}" type="CELLRANGE">
+                    <a:fld id="{87D8E343-8282-4584-8681-02FBAFD6EEC1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9323,7 +9166,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31D42F0C-3A09-4E77-92F1-0D1E9641B80A}" type="CELLRANGE">
+                    <a:fld id="{14299DBA-420D-468C-8B52-58703F6FD6CF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9357,7 +9200,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8066F8E-C846-4564-AC0A-8576FBD31A58}" type="CELLRANGE">
+                    <a:fld id="{D48FE2C4-DADD-440B-826F-475A9B9AF5C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9391,7 +9234,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87791645-F59F-4351-9191-9DBED00F36D4}" type="CELLRANGE">
+                    <a:fld id="{6282571C-F92E-4DB0-A27A-48174CB415AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9425,7 +9268,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF4B71C9-71FB-44D1-A03E-1EB3CF8AB0AD}" type="CELLRANGE">
+                    <a:fld id="{5C1609BF-4746-4971-B1D4-0B8DF8047459}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9459,7 +9302,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DD89B80-B2EE-4B20-813A-5E80377269E2}" type="CELLRANGE">
+                    <a:fld id="{DD0D1CDA-9114-40EF-960B-ED1425A36CCD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9493,7 +9336,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06077433-B221-4CD7-9464-69ED810572FE}" type="CELLRANGE">
+                    <a:fld id="{E861DF96-0E6B-48CE-8593-44140A4B5A2F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9527,7 +9370,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DADF137A-C0C9-4E68-9D75-EAFFDC21248B}" type="CELLRANGE">
+                    <a:fld id="{A2DBD077-C612-48B1-95E0-F9C4289C40EB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9561,7 +9404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19E734D8-065F-46DC-8470-D3586A2FE03E}" type="CELLRANGE">
+                    <a:fld id="{47BB9C4D-D48A-41F7-9AC5-1C3C81352F8D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9595,7 +9438,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7233302-3D8E-496C-84DC-61AFC4B1DDE8}" type="CELLRANGE">
+                    <a:fld id="{96525DD7-66E5-4B0A-B9C7-152C889B1C3F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9629,7 +9472,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15559151-B54B-466E-98F3-5B6483F66A0D}" type="CELLRANGE">
+                    <a:fld id="{A515AE19-66E8-4BD5-9CE9-A6967C111B6A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9663,7 +9506,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1778B2D-CD5A-4478-B927-1D160F73F5B0}" type="CELLRANGE">
+                    <a:fld id="{A27E4A7C-A381-47C8-BB8F-3CE680E3448C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9697,7 +9540,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16232DED-4B0F-4416-9852-93B99F8CE897}" type="CELLRANGE">
+                    <a:fld id="{4715DD03-D50E-4AED-9CBF-955806BC0C51}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9731,7 +9574,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18DC0E3F-19F0-4A49-BFE3-8CD79743A9D7}" type="CELLRANGE">
+                    <a:fld id="{E006C7C0-CE3C-4FFD-A625-C895CD3B9769}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9765,7 +9608,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9367DCF2-8115-4C47-BC5D-122E397C4BAA}" type="CELLRANGE">
+                    <a:fld id="{4EDB958F-4252-4086-A887-70278D38E6B3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9799,7 +9642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6A5B48B-7D4E-40FE-8EBE-7339840CF55E}" type="CELLRANGE">
+                    <a:fld id="{C1FB0AFD-48FC-4760-92B2-EE5A49DDDFED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9833,7 +9676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D62FC753-4228-42A0-8DBB-48B1F3BAD6EE}" type="CELLRANGE">
+                    <a:fld id="{5FE93B47-3EBD-43CA-84D5-2C39B7DEB99A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9867,7 +9710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9AA4C18-5A40-467D-9705-F8CD518DE7C9}" type="CELLRANGE">
+                    <a:fld id="{8452AF53-EF65-4703-AD24-9F57D933ADA5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9901,7 +9744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CFB60A2-FC9B-473F-ACA7-A10DCADB131C}" type="CELLRANGE">
+                    <a:fld id="{C877BE6B-EDD7-4FF5-B618-4978A21D4345}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9935,7 +9778,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73B5B843-AB4B-4372-9B70-B5922D820083}" type="CELLRANGE">
+                    <a:fld id="{4222947C-D025-4946-B602-B0645C8AF8AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9969,7 +9812,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7508CC4F-0AB0-4C2F-BD76-C3D1616B7F66}" type="CELLRANGE">
+                    <a:fld id="{529EBDCC-E32C-4B1F-A8E0-F5F27BFD1CE4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10003,7 +9846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BFFA34E-35D7-443D-A034-B1C76401537E}" type="CELLRANGE">
+                    <a:fld id="{9D5D2AE0-E448-4484-BE82-BB2EEAD450B1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10037,7 +9880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D6C5563-BD0A-4431-AC33-2663F901CF4B}" type="CELLRANGE">
+                    <a:fld id="{0E8F83B8-DAC9-46ED-AC89-7D3AFC7DC470}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10071,7 +9914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BF2BC08-694D-4994-93D4-5CD0FF7F88B9}" type="CELLRANGE">
+                    <a:fld id="{DD2368A2-0179-41FE-9690-C5DC5823BE93}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10105,7 +9948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{582C12F7-9983-484B-9108-79171F7CDDBC}" type="CELLRANGE">
+                    <a:fld id="{D9E90BAC-41FC-4223-9CCD-B085AB998BDB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10139,7 +9982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9F219ED-C72B-4134-8A77-72220897B8A6}" type="CELLRANGE">
+                    <a:fld id="{CD477D2D-D591-42B9-99F6-1AD4A8E33042}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10173,7 +10016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E549D023-C07B-465B-B3E3-CBB78AF1448D}" type="CELLRANGE">
+                    <a:fld id="{248F9FAB-2F01-443B-A37C-B18654B3A6CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10207,7 +10050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5EAE8EC-510F-489E-A597-B1E354178F56}" type="CELLRANGE">
+                    <a:fld id="{E18EB858-9C98-4C2D-A11F-AD25F86A4345}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10241,7 +10084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4265AAC5-CCF4-4F72-923B-D7968EB839D4}" type="CELLRANGE">
+                    <a:fld id="{2B63CF23-559D-4088-ADEC-0F093876AAAA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10275,7 +10118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A9292BB-DA22-45EC-BB75-32FCA9C9AD8C}" type="CELLRANGE">
+                    <a:fld id="{A35CAA57-85CE-42F9-9576-79C779C9BE82}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10309,7 +10152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8EA126A-D061-4262-A52B-9587233FD089}" type="CELLRANGE">
+                    <a:fld id="{CAC9024E-AD17-4B46-B541-D15606C19061}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10343,7 +10186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B939CE1-BAA4-4B6C-8644-86A5278D0414}" type="CELLRANGE">
+                    <a:fld id="{4460B2A4-4FF4-4C88-AED8-46BF75205E8B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10377,7 +10220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28F763A7-4E78-4ACA-A9E7-D40343DB66C7}" type="CELLRANGE">
+                    <a:fld id="{89724A92-CAFA-4B8C-8B18-95549A9489AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10411,7 +10254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{168180E3-ECAD-4F54-8952-6E68FAA32EA0}" type="CELLRANGE">
+                    <a:fld id="{240B04AC-C072-4C34-82D4-16855CB9F76F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10445,7 +10288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D41B78E-EFBC-4040-8E16-EFE19D6573DC}" type="CELLRANGE">
+                    <a:fld id="{61BD2B7C-CC7F-4143-A1E1-E8766F9424A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10479,7 +10322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E36DB5AC-4E67-4EBD-A4A1-9D7D8366E10B}" type="CELLRANGE">
+                    <a:fld id="{FF156AA7-C6AA-417D-9937-9FD0DBBC0D78}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10513,7 +10356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A139CB5A-A63C-4C2F-A9BD-3A8DBBF995BF}" type="CELLRANGE">
+                    <a:fld id="{0594EFB7-74B9-40ED-9C91-BA4B243CA5C7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10547,7 +10390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{298191E3-06FC-4903-AC71-E55B77B178CD}" type="CELLRANGE">
+                    <a:fld id="{DDA4FB2C-CCD2-4639-8816-734343633D22}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10581,7 +10424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D70EE90-9BD7-461B-A778-1F614401DF5A}" type="CELLRANGE">
+                    <a:fld id="{05C3F34E-34F8-45E6-8E7C-EE437C3EFC8E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11711,7 +11554,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70FA5CE7-D2D8-490E-A2CF-7D6E3361D4D9}" type="CELLRANGE">
+                    <a:fld id="{5BA21B9E-FEA6-4737-9522-C8D88622E7C7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11745,7 +11588,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE4B5821-6DF1-42A8-AD6B-25403EF98B5E}" type="CELLRANGE">
+                    <a:fld id="{27F38F40-0B70-44D8-A25A-E7A1040278D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11779,7 +11622,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{709025D2-F4EC-408C-AC70-6C413AFECB4D}" type="CELLRANGE">
+                    <a:fld id="{87C3B0DF-A556-4CB4-A0FF-D08C8CB3B8A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11813,7 +11656,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8446301A-14A5-4BE8-9E5B-18DD7571CC21}" type="CELLRANGE">
+                    <a:fld id="{0C2E423E-5E20-4A67-AEC2-3568C84CB41B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11847,7 +11690,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{210FF9E8-9AED-4947-978D-87E06ECBF595}" type="CELLRANGE">
+                    <a:fld id="{E31A3966-F3C5-48D5-B798-BDCD1115BA87}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11881,7 +11724,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90EEF6DE-2595-4ED4-A5E2-F45AA82FE7FA}" type="CELLRANGE">
+                    <a:fld id="{6E7BD49C-440A-4F88-ABAA-5F5EBCD9EF7D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11915,7 +11758,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76C29AC2-184F-406A-9676-E6A48E68C88A}" type="CELLRANGE">
+                    <a:fld id="{9886183D-FB0F-4E21-ACE8-D4E3DBEE97F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11949,7 +11792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CF36CB5-BB49-4ABE-94FF-C53A07D2E7F5}" type="CELLRANGE">
+                    <a:fld id="{EB25308A-F032-4398-817B-B959161CCB67}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11983,7 +11826,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8907A4CF-832C-44A4-9E10-7A7B7BB77B32}" type="CELLRANGE">
+                    <a:fld id="{3600A459-F349-4F15-B7F1-B94DD598F876}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12017,7 +11860,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2616CBCA-1AD8-48DB-B9C1-D1616E1E4DD5}" type="CELLRANGE">
+                    <a:fld id="{27A0FBD4-C766-4B41-8D85-097991B4FA4C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12051,7 +11894,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC9F266B-51BA-425E-8E23-AD93C0120D7F}" type="CELLRANGE">
+                    <a:fld id="{08646A72-E264-461E-AE8B-46EB10B4D40B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12085,7 +11928,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F16AA954-AE70-4A5E-A82B-8F21365F3B2C}" type="CELLRANGE">
+                    <a:fld id="{A02A3E0F-6233-49BA-BB28-67A8769385BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12119,7 +11962,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BA516A6-C9A4-4CE9-AAD4-D48B4D93F1D0}" type="CELLRANGE">
+                    <a:fld id="{1F1732A5-916F-4B2C-ABA4-CDB696E8ED5C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12153,7 +11996,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7C24F53-C692-4A17-9B3E-8AB31219E5CD}" type="CELLRANGE">
+                    <a:fld id="{E8764AB3-35C5-4A18-AB72-121544EEB615}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12187,7 +12030,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8CB229F4-FD52-4A54-B2F6-A34B55619585}" type="CELLRANGE">
+                    <a:fld id="{A442C146-6608-4A29-B917-6E7CE79436E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12221,7 +12064,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{365613FD-9CF1-4518-AD08-F1DD7043D0E5}" type="CELLRANGE">
+                    <a:fld id="{F5F903D9-AA56-43BD-BA2D-CDA25CC37CCD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12255,7 +12098,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA53F5D0-9F85-4DFD-963D-0B8A192D7A36}" type="CELLRANGE">
+                    <a:fld id="{F0A9428D-F4AA-4923-8519-D30439E0B3DD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12289,7 +12132,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2CD5892-282D-4D55-B64B-696CE3140FAB}" type="CELLRANGE">
+                    <a:fld id="{510A05B2-6B13-4DE3-A564-80F5CDCDC8C6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12323,7 +12166,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8AD86803-6A59-4335-99B8-7AAA9ACD99D1}" type="CELLRANGE">
+                    <a:fld id="{EE8542E8-F0C7-47B4-9F30-1EEDC02AE178}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12357,7 +12200,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D88E1656-03C8-46F4-AF34-76684DB8687D}" type="CELLRANGE">
+                    <a:fld id="{9EA51C60-934B-4604-B37F-F5BBBBB7C3F2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12391,7 +12234,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47BB4DC8-25EB-4CA0-ADE9-789F7F31EEA4}" type="CELLRANGE">
+                    <a:fld id="{B7C9A7E1-EF8B-42C4-91F7-7D79635BAF21}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12425,7 +12268,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F5C34759-B3B2-4228-8B6F-30B4148D16C0}" type="CELLRANGE">
+                    <a:fld id="{1A90B566-1665-4EE7-9C1F-39BC3FDC1F0C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12459,7 +12302,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8197F3B-FB36-463B-9FAA-1D42E11688D7}" type="CELLRANGE">
+                    <a:fld id="{CF7C995F-C204-4074-9EF8-4895AB002CB1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12493,7 +12336,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5BE8261F-B1BA-423E-8C01-3BBDDB1BDDD0}" type="CELLRANGE">
+                    <a:fld id="{57A52882-66E2-449E-B675-444321F94417}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12527,7 +12370,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7118175-265B-4DBB-B342-129771486C70}" type="CELLRANGE">
+                    <a:fld id="{A389785C-D723-4697-B8C0-FE0D70BDCA5B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12561,7 +12404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC9A6725-DAAD-4B50-AB18-36AD2246E044}" type="CELLRANGE">
+                    <a:fld id="{3AFC04E6-F006-441F-A7D7-C58FA766D283}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12595,7 +12438,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC94D7C6-5A0B-4408-825E-EC83D06A0758}" type="CELLRANGE">
+                    <a:fld id="{EFF00147-9B38-4472-BF41-77CBE2E4C0E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12629,7 +12472,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4EC60DFC-EDED-4E34-9D6F-282A2568CBA4}" type="CELLRANGE">
+                    <a:fld id="{766C215F-01E4-4AA6-ADD3-8AA613BFBA69}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12663,7 +12506,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C97E2209-3924-4005-8515-5FF049D025D8}" type="CELLRANGE">
+                    <a:fld id="{5648C83E-FA05-41E8-BAB8-A6C9FDC2DFE8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12697,7 +12540,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CDD0767-C1B0-4EC2-9CA1-493FDF87C33B}" type="CELLRANGE">
+                    <a:fld id="{98CB9F81-02A8-4D88-A45D-D66134193393}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12731,7 +12574,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42A26CE8-8EAF-446B-8C22-6E10088BF87D}" type="CELLRANGE">
+                    <a:fld id="{872194C5-8DB0-4C8B-8620-544325F31C42}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12765,7 +12608,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{492FF094-4E37-4FE2-B8DE-CF0B1A394092}" type="CELLRANGE">
+                    <a:fld id="{8D631181-C4AB-4606-BDDE-A8ECD8712A33}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12799,7 +12642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36DB5280-AAED-4282-92BA-3A3790B5D379}" type="CELLRANGE">
+                    <a:fld id="{1FD4AA97-9A6C-4C4E-A745-AF92AF65AFF2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12833,7 +12676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7E83D9E-8AD0-4491-AB25-2C1624C14134}" type="CELLRANGE">
+                    <a:fld id="{56AF90C1-A4DC-4C7E-89F8-51820F1DE15A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12867,7 +12710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80022170-F3A6-446A-8AFB-562B3A95528D}" type="CELLRANGE">
+                    <a:fld id="{5C1BDB18-FF4C-4535-A012-F9E39D1F7BE9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12901,7 +12744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF85FDDA-1492-48F5-B3F9-59E6E8F472AD}" type="CELLRANGE">
+                    <a:fld id="{A89F1A79-D318-40FC-9BB9-6D7155493F1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12935,7 +12778,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4173BD76-5D35-438F-8851-62073B1DB08B}" type="CELLRANGE">
+                    <a:fld id="{8F991463-35A9-4BCC-AD73-47F0B19E5E0B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12969,7 +12812,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0C2C528-92E5-416C-B72E-902A1D24555B}" type="CELLRANGE">
+                    <a:fld id="{27909753-D776-4411-A32C-26C99349C412}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13003,7 +12846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36B7F356-4E87-44F4-8C15-7EC62041B338}" type="CELLRANGE">
+                    <a:fld id="{69F230FF-F418-434B-BCC8-7B02878C289F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13037,7 +12880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{096E23B2-4D41-4199-B7C7-B1AF3BA2E613}" type="CELLRANGE">
+                    <a:fld id="{C92E8677-58AB-4D20-A823-DA9BDE4EAB83}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13071,7 +12914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27CAE512-9504-40E1-A6CE-8AA1036C9EE9}" type="CELLRANGE">
+                    <a:fld id="{98682563-6EA2-4730-BF92-5FF15232B872}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13105,7 +12948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0179C8C-FB31-4772-B933-A9550F157F97}" type="CELLRANGE">
+                    <a:fld id="{A6A28F36-42A2-46F8-899F-55CF82F619F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13139,7 +12982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CFA28765-8583-46CD-9D00-78B945463B6C}" type="CELLRANGE">
+                    <a:fld id="{F4D72FF7-75FB-4403-AA52-D4E72CF1F198}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13173,7 +13016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B955A70-988C-4675-B602-8D6447F8BD8D}" type="CELLRANGE">
+                    <a:fld id="{C17E2095-C50A-42BA-9BF1-51473C487A3A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13207,7 +13050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5951627-7634-43AC-BD2A-1BF2EBBE7C74}" type="CELLRANGE">
+                    <a:fld id="{B7E8DA10-4A1E-46FC-9911-454CD2A6BA67}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13241,7 +13084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56437854-7C28-4CC4-9A8F-05A1B465FB18}" type="CELLRANGE">
+                    <a:fld id="{16E1C3FA-32F0-4432-B895-3BF5EEAC4552}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13275,7 +13118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B557003-858A-4329-A724-025E3FEE36CE}" type="CELLRANGE">
+                    <a:fld id="{030A824C-D9FF-404D-89EF-87CD3454D89B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13309,7 +13152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{108EAFF2-66E6-42B1-830F-59E04F66AD31}" type="CELLRANGE">
+                    <a:fld id="{6C40C258-49E3-40DF-9025-CF7E036B36D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13343,7 +13186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBF1766E-17AF-415E-9D0D-BAB25538D2EE}" type="CELLRANGE">
+                    <a:fld id="{791C2B4D-5981-4584-AE5A-317A34FAFED8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13377,7 +13220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4662CE35-60CD-4DB6-9563-72E832BBC2D7}" type="CELLRANGE">
+                    <a:fld id="{7C3BBE94-E72B-4F7D-980C-2FC3493732CF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13411,7 +13254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BDBB043B-53E2-4D3C-B097-448F52BA0768}" type="CELLRANGE">
+                    <a:fld id="{449340BC-2891-4626-966D-78E1D3C0677E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13445,7 +13288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86F2DE34-B8C3-4812-A0C1-0008DFEA0EBA}" type="CELLRANGE">
+                    <a:fld id="{C15A4C60-3EB5-45A3-AF6F-9B4067142284}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13479,7 +13322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10A5F32A-1E34-43F0-B308-00A9A7E3885E}" type="CELLRANGE">
+                    <a:fld id="{08AC83D9-305F-49A6-AD2A-868CA8700393}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13513,7 +13356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BDC98BF2-1F1D-4EF7-A696-99A8E61DD546}" type="CELLRANGE">
+                    <a:fld id="{420A708A-0A67-442C-BFE2-2B395622E95B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13547,7 +13390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F71F85E-C547-4386-9C2D-5AD524E388CB}" type="CELLRANGE">
+                    <a:fld id="{61AF8BB3-148E-40D4-8195-1F277004E383}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13581,7 +13424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21AEE1B0-8775-4B5B-A399-834AC9A195C9}" type="CELLRANGE">
+                    <a:fld id="{38FFC506-6114-4B56-AF5F-812CC189A6DE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13615,7 +13458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2423B95-D271-43E2-8EE1-33126477C44B}" type="CELLRANGE">
+                    <a:fld id="{64DBA60B-92B9-40A8-ABA1-609013B1EAF5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13649,7 +13492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{385CFD9C-B496-47CB-9E13-DDEFB03C2C53}" type="CELLRANGE">
+                    <a:fld id="{C078C210-BDBB-4B18-AEE1-692AECFF75E6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13683,7 +13526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD100825-1A4B-4541-897F-938D19BBB106}" type="CELLRANGE">
+                    <a:fld id="{CEA82A45-C73C-42DA-8FEF-EB0DFCE63046}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13717,7 +13560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B85E3A86-E41D-4853-B4A9-001DAC3E7A85}" type="CELLRANGE">
+                    <a:fld id="{4FA747D5-534A-4C3D-9AED-DA398252903F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14847,7 +14690,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99B1889C-3AFF-4FAF-960C-C4418054C2F8}" type="CELLRANGE">
+                    <a:fld id="{640FAB63-382D-4858-A856-5B70F44013A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14881,7 +14724,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A36ED4F6-AB6E-428B-9237-44ED01D61334}" type="CELLRANGE">
+                    <a:fld id="{E39CC8C6-9B7B-45C5-B7EF-236710233987}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14915,7 +14758,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52136295-F351-4F55-B1E4-BBCEF235492E}" type="CELLRANGE">
+                    <a:fld id="{B9FFBE25-EE8E-4F31-808F-D3657CBF1346}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14949,7 +14792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A760011-A097-48E2-858A-99FCC9351917}" type="CELLRANGE">
+                    <a:fld id="{B4E9F016-761D-455A-BD56-C2B94DB8DD94}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14983,7 +14826,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0409B67E-C375-4FD2-9682-621FEDA393B0}" type="CELLRANGE">
+                    <a:fld id="{0386C49E-DF44-4816-AA48-CED7B158C2AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15017,7 +14860,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94E4BA52-71D9-4A18-8FB3-D787BAFD3EA0}" type="CELLRANGE">
+                    <a:fld id="{4A0557E4-6126-4B26-89C1-11CC976307CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15051,7 +14894,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DCD2386-409F-4B68-982C-ECCB976FF245}" type="CELLRANGE">
+                    <a:fld id="{A88FBA2D-92AF-4F8B-8246-4006D6DB85C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15085,7 +14928,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1802DE3F-1E2F-47B6-996A-B007FA4C6B1A}" type="CELLRANGE">
+                    <a:fld id="{7708D540-3B41-4EE3-BFC4-E4D7207BAF66}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15119,7 +14962,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{300DE3B7-EECB-4AA8-81CD-535E29A97136}" type="CELLRANGE">
+                    <a:fld id="{C1BA2E87-AE21-449D-B029-A4A6B2DE49BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15153,7 +14996,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F189DEB1-DF03-45ED-8E80-0C4654984360}" type="CELLRANGE">
+                    <a:fld id="{EA7EFB40-8BAC-4A00-8A0F-56B75198A5F4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15187,7 +15030,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5201E0BA-C528-457E-A3DB-34657A1FDCB5}" type="CELLRANGE">
+                    <a:fld id="{2355A45E-6F16-40D0-99DF-CCB6FC43A39F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15221,7 +15064,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CE9AC47-26AC-4D3B-8446-D8DA788D52F6}" type="CELLRANGE">
+                    <a:fld id="{5770B36D-93A4-4534-898C-629B44960425}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15255,7 +15098,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D10A8BAE-96DE-45B4-B86E-BAEC83AE837F}" type="CELLRANGE">
+                    <a:fld id="{46930CAE-D598-4710-841B-B29485F372E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15289,7 +15132,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3613413-A086-43E0-B48F-D30AA763D5D7}" type="CELLRANGE">
+                    <a:fld id="{BF64EC1F-F8A3-48D6-8907-31C443C0AC48}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15323,7 +15166,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{536C717C-C36C-449C-85AF-CAA2CD7C7AE4}" type="CELLRANGE">
+                    <a:fld id="{6CFBEC60-242D-465F-A1E3-9FC0B89CA55E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15357,7 +15200,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C82DE563-0CE5-4F65-A5C2-4ED1526CECBA}" type="CELLRANGE">
+                    <a:fld id="{72086CF3-F8E0-457D-BAC3-2816EEA3BF92}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15391,7 +15234,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDA5DF62-00BA-46D6-82E8-D52F6123CD0D}" type="CELLRANGE">
+                    <a:fld id="{E018942F-E551-4D6F-B5ED-273126A75A05}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15425,7 +15268,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED7994D9-976A-467F-815D-C85B9BDEB83B}" type="CELLRANGE">
+                    <a:fld id="{C7E4A355-B543-4BC3-977E-6627975388A8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15459,7 +15302,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F3A117C-7ED5-41E8-8825-8756879F21EC}" type="CELLRANGE">
+                    <a:fld id="{E792CFB1-0605-4A76-B68E-1C5A8729DFEA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15493,7 +15336,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65ABDB17-2DDF-4CFD-AF54-25B0B41BE7B8}" type="CELLRANGE">
+                    <a:fld id="{39B92E50-2D63-4490-8DF7-E7CC45D0B77A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15527,7 +15370,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43968CCA-1715-498E-8988-4699DF4DBA26}" type="CELLRANGE">
+                    <a:fld id="{6BA6663C-D3D3-4E0A-83CE-FFCEF580E70F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15561,7 +15404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB0AA0C5-EDCA-4C7A-B448-AB0E975AF7F7}" type="CELLRANGE">
+                    <a:fld id="{0174FDB5-5773-49A6-B501-C34BE273282C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15595,7 +15438,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00452A1E-A8C5-497B-826D-EA7F41524548}" type="CELLRANGE">
+                    <a:fld id="{F1F5D9F5-EF56-4824-8B0F-5706AE6DCBDD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15629,7 +15472,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{362EE86D-B1B2-4876-A33F-34FFC997E1C5}" type="CELLRANGE">
+                    <a:fld id="{134C180D-2263-4987-96A7-1310B334CB19}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15663,7 +15506,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42BBADF8-5EFC-4249-896C-7BE05EF62AD1}" type="CELLRANGE">
+                    <a:fld id="{B42F3BA2-87FA-434A-B948-C10924A03438}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15697,7 +15540,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD4E1C6C-519A-4508-BCE5-FF8745797228}" type="CELLRANGE">
+                    <a:fld id="{8A040845-EB54-43A0-9C7A-75ECDB513990}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15731,7 +15574,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6AF31FD8-B56D-44B4-9FD1-160E494C4C3F}" type="CELLRANGE">
+                    <a:fld id="{1DD72E16-491B-4FF9-8F98-36EF74810EC5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15765,7 +15608,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{093D6206-B0AB-456E-AF8E-B6C0B7D3F939}" type="CELLRANGE">
+                    <a:fld id="{A5B3BA75-3E9A-402E-9C0E-02FE0D896E7B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15799,7 +15642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29249B5E-62AD-4E4D-87F7-372AE4938941}" type="CELLRANGE">
+                    <a:fld id="{EEC7D37C-E9C0-49BF-ACB5-D4614436A197}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15833,7 +15676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2700EDEF-4F66-4C9F-8EA5-18814B3F31B0}" type="CELLRANGE">
+                    <a:fld id="{701981DA-5E0A-4535-87AA-35580710CD14}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15867,7 +15710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBE4F751-3BFB-459B-8612-FB97F51B981A}" type="CELLRANGE">
+                    <a:fld id="{F69470B7-A1DF-467D-9630-5F616EFAD1BB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15901,7 +15744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{798903F2-2FF6-438C-928E-3FB9A9B0C8BD}" type="CELLRANGE">
+                    <a:fld id="{DD8DB80C-12B3-455C-8D71-4BC0CCEF26D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15935,7 +15778,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81A555A6-4FC3-4E7F-AA5F-86B56E171FA9}" type="CELLRANGE">
+                    <a:fld id="{50711631-E80C-4D7B-9A9D-6F98C8EBD446}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15969,7 +15812,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B47F268A-DA6C-4FDA-B760-8039D36BB3C5}" type="CELLRANGE">
+                    <a:fld id="{A580A0A4-CFE8-44BF-8227-E60D83865835}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16003,7 +15846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CB9FCC6-7797-4480-9D28-EA560027E41D}" type="CELLRANGE">
+                    <a:fld id="{C9608FAB-C7D4-4A49-8060-EBD6EE1E6C4D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16037,7 +15880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA8B7BF2-1992-4354-8175-47E13C991A0C}" type="CELLRANGE">
+                    <a:fld id="{619D2018-EF3C-4038-B74D-88152CB9378A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16071,7 +15914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C682489B-42F3-4FAA-BCC5-51578A64DFB6}" type="CELLRANGE">
+                    <a:fld id="{A1EA6186-5522-4B86-843F-ABB649C23045}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16105,7 +15948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45BFD8A7-5D79-481E-9894-7143E11563A5}" type="CELLRANGE">
+                    <a:fld id="{EA86AF86-0D93-4EA6-A2A8-7AF875C32820}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16139,7 +15982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3632E1D1-2A99-4A39-8383-51A66BF08EBB}" type="CELLRANGE">
+                    <a:fld id="{320E68AB-52D5-4962-A2D9-B8C2D34839BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16173,7 +16016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4EA5C6D6-EF47-4A1A-856F-D03ADA6CD53C}" type="CELLRANGE">
+                    <a:fld id="{F17698DE-0BE1-4506-87F5-341FEF9D5DC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16207,7 +16050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{122875BA-68B1-4DC7-9A05-E4D4D8571F20}" type="CELLRANGE">
+                    <a:fld id="{F30796CA-504C-415C-8B3C-B22E5453D1C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16241,7 +16084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DADDD6F3-9351-4973-AB2B-24AD98863F44}" type="CELLRANGE">
+                    <a:fld id="{BFA4BD80-789C-4689-B815-24380CA3CBFD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16275,7 +16118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF63ED33-E175-4F04-B473-1172AEF09E41}" type="CELLRANGE">
+                    <a:fld id="{856FBB1C-509A-4466-B99D-D79AA981AFA8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16309,7 +16152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BAC5DFB9-A08D-4CCD-89C2-9DF97D8CD32E}" type="CELLRANGE">
+                    <a:fld id="{03ED0827-078C-42B4-B9EC-D9B4AEC43F89}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16343,7 +16186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E49C3F1C-3978-41C1-A7CC-2E15D0758E25}" type="CELLRANGE">
+                    <a:fld id="{C31D681B-3701-408C-AB29-690C2EF09439}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16377,7 +16220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC75FBE1-238F-4E22-B9BF-A4C81B3E5A34}" type="CELLRANGE">
+                    <a:fld id="{B6B06646-4F23-46BA-83E8-C8C7853F40B1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16411,7 +16254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{634C5B9A-7BAC-4E66-8AB3-AB200C4A6B65}" type="CELLRANGE">
+                    <a:fld id="{C59FF685-6C4A-4FA9-A99A-7E88DD7F1CA1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16445,7 +16288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A25772D9-A6F2-4E39-9BA9-EE985B32F837}" type="CELLRANGE">
+                    <a:fld id="{82D16E03-2C99-48B1-AAA8-26113231E51B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16479,7 +16322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CB0BC68-7613-4626-A574-994E851ADAA2}" type="CELLRANGE">
+                    <a:fld id="{78D3E962-0DC1-46D7-AA31-8F53C27026D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16513,7 +16356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EA50019-A5CD-4127-91FD-8ADE485EEFEB}" type="CELLRANGE">
+                    <a:fld id="{3134A8FF-3E57-448D-82D9-A9CD2B17889F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16547,7 +16390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD584C68-BDD3-445C-802A-A73E0CDC3CFF}" type="CELLRANGE">
+                    <a:fld id="{12138345-FFF3-4A58-B1BB-EC00688FCABD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16581,7 +16424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8C98301-FF03-47AE-9FC3-7E99603B5FDB}" type="CELLRANGE">
+                    <a:fld id="{5FCC07D2-8ADD-421F-97F2-FF923CD75A8C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16615,7 +16458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{694F634A-263C-4B2C-B052-A6B59D4CD24D}" type="CELLRANGE">
+                    <a:fld id="{17DADFAF-D05D-4243-AB3A-05FD9E29FE4A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16649,7 +16492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55D074E4-8C2F-4709-A173-2927B8F703CC}" type="CELLRANGE">
+                    <a:fld id="{E5C3D83A-7DB4-47BA-97A9-982A513F5A24}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16683,7 +16526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2DE3E795-2BBF-4757-BEC5-978FC81D87FA}" type="CELLRANGE">
+                    <a:fld id="{08A13D24-DBDD-4E6C-862A-5ECB57BD7FCB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16717,7 +16560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88C03041-D432-4612-A5E0-71957514B914}" type="CELLRANGE">
+                    <a:fld id="{C71FF7B0-4026-4A56-8974-D034D4009D29}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16751,7 +16594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C56E59C-DD67-4998-986F-E792F9A8F22C}" type="CELLRANGE">
+                    <a:fld id="{412A1500-23E3-45CD-907D-E144F25940CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16785,7 +16628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82D1193C-EAFC-47B7-88FA-781877D0A0A1}" type="CELLRANGE">
+                    <a:fld id="{67E7F428-6287-4E97-BF00-D4CB51924E26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16819,7 +16662,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07652AAF-07CF-467C-B0BD-3D436D930A47}" type="CELLRANGE">
+                    <a:fld id="{93C82FBC-6688-4109-AC96-D1E950D2AD0E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16853,7 +16696,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{070A5D1F-0D67-46D0-85C3-014C0421B8BA}" type="CELLRANGE">
+                    <a:fld id="{0D2F6998-26F6-4AB9-A4D9-C97674405FEB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17982,7 +17825,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB8DDE19-E9A1-41D3-B05A-AA11AA105983}" type="CELLRANGE">
+                    <a:fld id="{D4096546-73FF-4DEB-A801-45CEB44A7CEF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18016,7 +17859,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3ED1D11-3BC2-4AE4-9A44-23937429D23F}" type="CELLRANGE">
+                    <a:fld id="{65E66698-040C-4598-8247-7B3148184449}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18050,7 +17893,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8486E237-383E-48D8-A068-A9A3660F0EF5}" type="CELLRANGE">
+                    <a:fld id="{D3E60421-BCAA-4EB7-B295-D084AD70FDBB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18084,7 +17927,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51040089-2847-4438-8CC1-9BE10577B7E7}" type="CELLRANGE">
+                    <a:fld id="{C14B7E0E-2A7E-4F3C-ACEB-71B5B408B56C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18118,7 +17961,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A43B8282-932D-4787-8058-A39D8E43ACD6}" type="CELLRANGE">
+                    <a:fld id="{C655AA69-4372-4A16-887B-E378D959EAA1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18152,7 +17995,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8D915C0-B9AE-4A20-A3F9-1B79A91284D3}" type="CELLRANGE">
+                    <a:fld id="{E0B83A98-2127-489B-8472-4708D23F5C6B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18186,7 +18029,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1740AD7D-0E5D-48E8-8606-072B7B8DC8CD}" type="CELLRANGE">
+                    <a:fld id="{773F0858-5EAB-4626-8996-AADFD3E357C7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18220,7 +18063,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C875A91E-05DE-4422-8AB3-6F8F908B3333}" type="CELLRANGE">
+                    <a:fld id="{6868BB26-CDC5-4587-9C6F-85A69229BD20}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18254,7 +18097,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FF669F3-66FA-4DF3-8E6E-AA3E00E4243A}" type="CELLRANGE">
+                    <a:fld id="{45AECA4A-9D04-4B77-8F9C-820C2288E824}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18288,7 +18131,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0439501F-6798-435D-B440-E321B40557E7}" type="CELLRANGE">
+                    <a:fld id="{B0A4300D-53E8-403F-9416-8493CBCB5EED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18322,7 +18165,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{801F655F-98BC-4290-8384-7C27AAE33051}" type="CELLRANGE">
+                    <a:fld id="{E78B45D5-C279-4856-B4DE-948DA5E71F1F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18356,7 +18199,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78888401-E96C-4069-91B9-779A9F1E474D}" type="CELLRANGE">
+                    <a:fld id="{B311F6B7-8CB3-4E36-B9C9-F4DB3FE214DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18390,7 +18233,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F045BF4-807F-491B-BBBE-97C61CB7DF0B}" type="CELLRANGE">
+                    <a:fld id="{FE314D8C-E842-49B3-BDCA-36F4AB8A74BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18424,7 +18267,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{670CFBEA-B3FB-4652-9D1C-4AAFCD7EFC12}" type="CELLRANGE">
+                    <a:fld id="{B4B36B92-D58A-423E-8F5B-5BE1A90B76CA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18458,7 +18301,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E131DCBA-90FD-4382-A2EB-C1AEA60F6536}" type="CELLRANGE">
+                    <a:fld id="{5B00B26B-F10B-420D-B628-162FFA859462}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18492,7 +18335,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0E9906F-36A2-47CC-966A-18225EF324A5}" type="CELLRANGE">
+                    <a:fld id="{42819E7E-537C-4B09-8F7D-B11EB83B435D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18526,7 +18369,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96A39E8E-DF1A-46B3-9998-1DE43ED9E71F}" type="CELLRANGE">
+                    <a:fld id="{C78B18DB-2495-4374-959B-3CFB46C565A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18560,7 +18403,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA418F88-9040-4B9D-BF59-335A6579FA6F}" type="CELLRANGE">
+                    <a:fld id="{4A3FE233-DBFB-4851-B9C1-37C0B1E5A90C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18594,7 +18437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BFF736E-E244-4498-BCA3-AA010FDB4464}" type="CELLRANGE">
+                    <a:fld id="{4331EEE6-811D-4605-B5E0-97F5D51D8B89}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18628,7 +18471,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12E21412-6E25-4195-8FE8-39A620A27E5D}" type="CELLRANGE">
+                    <a:fld id="{A03E81DC-9537-4ACA-A3E1-C01558120018}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18662,7 +18505,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3ECC8B6E-205E-4CC0-A57C-A849EECA9FFA}" type="CELLRANGE">
+                    <a:fld id="{8D8FAC19-CAC8-48F6-98F0-BB0B623ADCDD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18696,7 +18539,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6C11E0E-FAD4-45BD-87E1-94C1B2138242}" type="CELLRANGE">
+                    <a:fld id="{0B0328ED-B7CC-44BE-9E10-BA045C5264E9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18730,7 +18573,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D71A091-303B-4818-A34F-FA881B5798E5}" type="CELLRANGE">
+                    <a:fld id="{5B213885-0730-488E-AD1A-25F2693CF82F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18764,7 +18607,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4E07E79-54D0-47BF-A232-5CB77DBFFE7C}" type="CELLRANGE">
+                    <a:fld id="{481E1AFF-B49B-4955-87C8-64F3E0A9884D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18798,7 +18641,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51F50C5F-B0DA-40FE-ABA4-F338FB233E2A}" type="CELLRANGE">
+                    <a:fld id="{2CA0FCB3-718A-4826-8641-133C4C424308}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18832,7 +18675,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53547F64-A614-443B-99DE-06C073E004C9}" type="CELLRANGE">
+                    <a:fld id="{3B017D08-BAA3-4993-B02F-BA927010E4DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18866,7 +18709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0090DDEE-68E1-4D78-A585-2B7F956059BB}" type="CELLRANGE">
+                    <a:fld id="{E1AA13A9-0079-477D-8C53-D3938B5D12C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18900,7 +18743,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FC6B445-74F1-4348-962E-76017D4EBA1D}" type="CELLRANGE">
+                    <a:fld id="{0C556DAF-CEAF-41E0-BFDA-1AD12F29CD68}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18934,7 +18777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB85DB3D-8D4D-4EDD-B730-2D254FD54E99}" type="CELLRANGE">
+                    <a:fld id="{E9DA48B0-5257-4725-84F3-980883936EF6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18968,7 +18811,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BEB2DE29-0459-4DED-9A39-657200B1CF89}" type="CELLRANGE">
+                    <a:fld id="{6582361B-555B-413E-A663-43893AFD007C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19002,7 +18845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{581651BD-862E-4C6C-8BAF-4CC085B352F5}" type="CELLRANGE">
+                    <a:fld id="{3F25CBC7-BA52-4432-895C-5BD2C98C561D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19036,7 +18879,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EF5F712-8CDC-4ACC-BBE3-110B532A1DA9}" type="CELLRANGE">
+                    <a:fld id="{FE5D27A2-BB3B-441D-A3D0-0CDB9EB28812}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19070,7 +18913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BF23041-B0AF-44C0-AA8F-17CB754705D9}" type="CELLRANGE">
+                    <a:fld id="{D6FC7FE9-A2F3-4D91-BD65-8CBE2CD63EE9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19104,7 +18947,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7664335C-C5D5-46C2-8258-99BB648C06E3}" type="CELLRANGE">
+                    <a:fld id="{13B02AD7-E79C-40B7-8473-2D7E1BEA5D2B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19138,7 +18981,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95BC2595-8045-46F6-B4B5-BBE6911F9952}" type="CELLRANGE">
+                    <a:fld id="{9A140567-CB0D-4536-ADE9-4C3817BBAEF9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19172,7 +19015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA1076B5-7AAC-48A0-AE66-5F3E64A91166}" type="CELLRANGE">
+                    <a:fld id="{0685CEC3-7359-4655-A8B0-14F77007259A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19206,7 +19049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB5F226C-3A94-4488-9F8F-29C86CA07404}" type="CELLRANGE">
+                    <a:fld id="{308CAF85-C2F0-46DA-BDE5-899D78D192AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19240,7 +19083,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0AD58D4-6C12-4337-8452-4D6712784F16}" type="CELLRANGE">
+                    <a:fld id="{B4FFCE7C-625F-49A0-82B6-04666EE1CC52}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19274,7 +19117,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99540149-D14E-4375-A340-A75451B3A0A6}" type="CELLRANGE">
+                    <a:fld id="{1E6E6494-96A5-41B3-912A-72730BD4DBDC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19308,7 +19151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E12A3C4-E29D-4343-8405-9D55CFBA9BA7}" type="CELLRANGE">
+                    <a:fld id="{F8BED6C0-C2AA-49B4-8940-CC77A038F108}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19342,7 +19185,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E01D9C3-F53F-4AB4-9CED-13211680E4A9}" type="CELLRANGE">
+                    <a:fld id="{ACB7B506-0C20-456D-B88B-2EBB1C29A84C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19376,7 +19219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{972EC5E6-4141-48B7-8BAF-3F4D358FED9C}" type="CELLRANGE">
+                    <a:fld id="{A414ED7B-BFA0-44F7-8401-7F928D0811B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19410,7 +19253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B3494F4-E3C2-4087-96AE-FCBF93CC09AA}" type="CELLRANGE">
+                    <a:fld id="{8982164D-B4FB-4961-A193-ABF6DA755625}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19444,7 +19287,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{459C2C29-FD38-48D3-A106-C3044ADECFF1}" type="CELLRANGE">
+                    <a:fld id="{23E5C4AE-DCCD-4999-BC32-48281BC1EA58}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19478,7 +19321,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4719251F-DFF1-4373-8D0A-565E0A0E0E90}" type="CELLRANGE">
+                    <a:fld id="{C04C2915-7DD8-49BF-AB0F-588F0DA506DF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19512,7 +19355,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BA56940-A495-4617-B221-1CBF78ABEDC6}" type="CELLRANGE">
+                    <a:fld id="{56F9C932-8B49-41D9-8054-2D6D22601023}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19546,7 +19389,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5155F3D-71D2-4B69-A07D-F477777B91DB}" type="CELLRANGE">
+                    <a:fld id="{45ABDF28-B6B7-42CD-B0C7-0379FCD6F5FA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19580,7 +19423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62B7E1E4-FBAF-402E-B9E4-6BBB108AFF7C}" type="CELLRANGE">
+                    <a:fld id="{909D8295-F12E-477F-918F-A1900399AE25}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19614,7 +19457,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF21AB89-7954-4E11-BE0E-7D36613C41D0}" type="CELLRANGE">
+                    <a:fld id="{FF5E8726-AD65-4CBC-A077-4E1AA8B1E0D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19648,7 +19491,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E212BC3-CA6A-45EC-87C2-DC62054F2337}" type="CELLRANGE">
+                    <a:fld id="{7D9FDA3D-9BA5-4A2A-AEEC-5387EF57DB56}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19682,7 +19525,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D14A6406-1D21-4847-9288-1EA53C1E7DD2}" type="CELLRANGE">
+                    <a:fld id="{DE888DDC-1943-4716-AF34-927C7EB9F0B5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19716,7 +19559,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{137ABE7E-4B72-47C1-94E0-DF2500FF65A8}" type="CELLRANGE">
+                    <a:fld id="{BF08ECF2-DC7F-44FC-9DA0-7099896B270B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19750,7 +19593,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D458CD2-3A96-4C29-8567-227DF62A3906}" type="CELLRANGE">
+                    <a:fld id="{353E8F01-5489-4A10-A755-EF1E2E2567F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19784,7 +19627,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C3E0380-F289-441B-B767-F88526C2814E}" type="CELLRANGE">
+                    <a:fld id="{89ED289C-E7F7-464B-A4F9-DDA4A2F0941D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19818,7 +19661,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D2CB259-DC7A-434A-BD44-EAD5CCC91392}" type="CELLRANGE">
+                    <a:fld id="{D1857609-7D06-45EF-A999-81D2BD479D19}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19852,7 +19695,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C1D0563-7540-43F3-B86F-2B41EEE84FA5}" type="CELLRANGE">
+                    <a:fld id="{86498ACB-9D09-4D35-BEF5-C8099A7697A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19886,7 +19729,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A62B90C7-3A89-4B13-8758-F5540470153C}" type="CELLRANGE">
+                    <a:fld id="{2BD64F6E-7D90-4546-A5DF-EA704CF24C5D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19920,7 +19763,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F93AD5BC-2AA6-4AB2-B734-3035468346B8}" type="CELLRANGE">
+                    <a:fld id="{F6DA693D-A3AD-4302-B1C0-45504CD31CB1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19954,7 +19797,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3639BBB8-70D9-48D1-8237-BB317EF32958}" type="CELLRANGE">
+                    <a:fld id="{9EA292D8-6D5A-47D3-9F17-76309F7390E3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19988,7 +19831,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A8B5A22-5FC6-4BFB-B97F-3C7BC9A1D9F5}" type="CELLRANGE">
+                    <a:fld id="{554A390D-2A13-4605-98D9-902AF81EF81D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21117,7 +20960,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD4CF5B9-10E2-474E-BB33-CCBAEBA8475B}" type="CELLRANGE">
+                    <a:fld id="{08B8465F-07EF-4EFA-B1A4-9B598F9E55BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21151,7 +20994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5F5C20A-C861-4227-A0CD-698AD6EEC39B}" type="CELLRANGE">
+                    <a:fld id="{10F01F5C-6ED1-4F51-BE6F-D22BB984F2CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21185,7 +21028,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E267AA1-D1F0-467C-8EAC-EEFE45830A76}" type="CELLRANGE">
+                    <a:fld id="{C4C9785E-47DC-456E-A613-57AEDAB36DBA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21219,7 +21062,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54A0355F-C59C-428A-A809-FABC489EA609}" type="CELLRANGE">
+                    <a:fld id="{0AFCDA52-EF7A-4A18-B936-D69FB40C5FC5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21253,7 +21096,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98878B59-7AC3-4588-8ED6-50835AB68522}" type="CELLRANGE">
+                    <a:fld id="{272E59EB-C70F-4AD2-A294-538BC0B3A88D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21287,7 +21130,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F891AC7F-2C00-4138-AD3E-19C021A6BA7E}" type="CELLRANGE">
+                    <a:fld id="{A4C7979F-CD38-40CD-8A26-6225B4262FE0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21321,7 +21164,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BEC1E0D6-8AFF-4CD6-98BB-6756E8AE20D6}" type="CELLRANGE">
+                    <a:fld id="{85B6E212-FDB4-4090-9140-F85757300EFD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21355,7 +21198,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70BBC2DE-0107-4B11-BEFF-88BC7DB640A7}" type="CELLRANGE">
+                    <a:fld id="{D25BA8E3-F64A-48FA-8BA4-2CE4AC2B0BD5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21389,7 +21232,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C74EF17-7F45-46E3-88C0-328F4DAF379D}" type="CELLRANGE">
+                    <a:fld id="{BCD25603-B9F1-4F52-BB32-2967AA337B9A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21423,7 +21266,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D08B833-0C7C-40B6-BF34-600EDA05F5D0}" type="CELLRANGE">
+                    <a:fld id="{5D860AB7-1022-4093-9F0C-C32ECA7554E2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21457,7 +21300,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45561195-DE3D-4E27-8D80-32EF977837BD}" type="CELLRANGE">
+                    <a:fld id="{B77CC753-C4BB-417C-8BF4-F0D863658169}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21491,7 +21334,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05DD000E-8DF2-4440-819A-74B2DDE409AC}" type="CELLRANGE">
+                    <a:fld id="{1A70DA52-FB27-4A20-8210-F7B7BC8D41F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21525,7 +21368,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1338032-8767-48E0-8BCE-606AFA35B715}" type="CELLRANGE">
+                    <a:fld id="{3EEF71B6-AA4F-4A8C-994E-B02175CC1064}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21559,7 +21402,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1248CA3-E963-448E-9234-72EC6D3291A5}" type="CELLRANGE">
+                    <a:fld id="{BA1A4479-F9B0-41E3-B713-970798BE8CE7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21593,7 +21436,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C140CB6D-E3F2-4EF4-8A6F-94A45478300B}" type="CELLRANGE">
+                    <a:fld id="{CBDA4EAB-300C-4829-A1B2-C23D70271CAF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21627,7 +21470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32769A82-4FF1-4798-A590-E1C89490C0E3}" type="CELLRANGE">
+                    <a:fld id="{356D4C2B-A738-4F3B-AC29-9DE9E1157F9F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21661,7 +21504,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDFAF25A-4865-4781-87D0-E7F68B29654B}" type="CELLRANGE">
+                    <a:fld id="{CADC4B1E-39B6-4AA8-A97B-A37C8AB5A8E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21695,7 +21538,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98D1E5D8-50E1-439D-BAA0-5465D60686F2}" type="CELLRANGE">
+                    <a:fld id="{11E9239A-8DCE-4308-918E-4699B1DEA444}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21729,7 +21572,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FE53821-2B9C-44E7-BCA9-C7DB257A1BD9}" type="CELLRANGE">
+                    <a:fld id="{227A7AED-DFEB-4F5B-B77E-33C038B26545}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21763,7 +21606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFB849B7-8CD2-424E-A7B5-FAD7DF3F818D}" type="CELLRANGE">
+                    <a:fld id="{73502B3D-3E0D-4133-A591-11A15C7A68E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21797,7 +21640,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24F9E0CD-B647-4254-BD3C-D303E30A0516}" type="CELLRANGE">
+                    <a:fld id="{76B60A97-016E-4D07-AE9D-FBD0F705115A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21831,7 +21674,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3A72EC4-BBB3-41B1-B0CF-F5B1677CEA8B}" type="CELLRANGE">
+                    <a:fld id="{E699AC32-6D0C-426F-BD36-1663EDDC88B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21865,7 +21708,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{881F20FB-B4AA-4E66-8DCF-6E70A4439693}" type="CELLRANGE">
+                    <a:fld id="{264DBEAC-7A28-47F3-AF87-156AF702B915}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21899,7 +21742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F496BD8D-B48C-48F0-BB76-AC83679FF701}" type="CELLRANGE">
+                    <a:fld id="{A58861B0-5AD4-4AE1-9063-C01A51D66B17}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21933,7 +21776,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B8C34C1-E2E0-4372-80CF-E533F05F6670}" type="CELLRANGE">
+                    <a:fld id="{F4E268E4-C3D4-46BA-82E1-B4E11405F2FF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21967,7 +21810,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{527FC060-084F-466D-AE70-2F844987F044}" type="CELLRANGE">
+                    <a:fld id="{BCF43674-4D6F-4774-ABDB-C5E49AC5E284}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22001,7 +21844,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E863756-1846-4E50-AEA0-B15B8E65B1D5}" type="CELLRANGE">
+                    <a:fld id="{53217537-16BE-4181-A679-D2B4E45415CF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22035,7 +21878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F533A360-C7A6-4812-B850-66C2E4A7425D}" type="CELLRANGE">
+                    <a:fld id="{75C72BD3-919B-498C-B872-9EEB883D5447}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22069,7 +21912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5BC24C9-3D81-48C7-8909-463E9F694741}" type="CELLRANGE">
+                    <a:fld id="{0BB4E498-0560-47BF-8CF6-65B13B084D72}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22103,7 +21946,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCA35BD6-B59E-47A0-B18A-CDCB06641C2D}" type="CELLRANGE">
+                    <a:fld id="{30EF120B-D730-4CFD-8242-97C114FC469A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22137,7 +21980,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD2A7751-B776-463F-8C3B-9E36E82098F6}" type="CELLRANGE">
+                    <a:fld id="{7F79A162-7DBD-43F1-A01D-5BDD4862B97A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22171,7 +22014,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADE00D18-B627-405A-8EEE-ABD72DBCB7A3}" type="CELLRANGE">
+                    <a:fld id="{F6E40D6C-DF93-4D43-AA0E-738EE47C57EC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22205,7 +22048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{707722A2-2245-454A-AE9B-DB0238898D5E}" type="CELLRANGE">
+                    <a:fld id="{47BA223D-AE73-46DE-8805-8448B9296D00}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22239,7 +22082,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{222DA0E2-26E6-4A74-891E-70DFBCA2906D}" type="CELLRANGE">
+                    <a:fld id="{C3888ED0-3873-45BD-9434-F682A3CFC677}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22273,7 +22116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A66C318C-58FA-4104-B541-B35B40A84C7D}" type="CELLRANGE">
+                    <a:fld id="{E77BA0C2-CD5E-439C-A129-1757E0433E06}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22307,7 +22150,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94CCF816-2DE7-4F6E-BCF0-51C1DC364C70}" type="CELLRANGE">
+                    <a:fld id="{AF603FBA-8CA0-4D02-AF92-41D9EDFED483}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22341,7 +22184,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77C3CDED-59DE-451F-BCFB-7072A19C9C93}" type="CELLRANGE">
+                    <a:fld id="{355374F6-0306-4B9D-914F-AB11664D8DC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22375,7 +22218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04334F99-B057-48E0-B74C-DD83A5A4F82F}" type="CELLRANGE">
+                    <a:fld id="{93A0C098-58CC-4F1C-B6E8-6C6BCC103D71}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22409,7 +22252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{510A7485-C910-4275-AD7A-76EC08471A9B}" type="CELLRANGE">
+                    <a:fld id="{830C84A9-B2A9-4852-94F2-9678082F238D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22443,7 +22286,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CABD10D2-E280-46BC-AE05-39106508CFD2}" type="CELLRANGE">
+                    <a:fld id="{27824CF9-8187-4F60-BECE-EC6261E42CB4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22477,7 +22320,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1A58ADA-4C14-4032-9CD3-B79964BCF581}" type="CELLRANGE">
+                    <a:fld id="{C0BAEC3C-57A3-4F06-B0E5-6B71A5C93438}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22511,7 +22354,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CF0B1B3-724B-4379-A2BD-5376F3A259AD}" type="CELLRANGE">
+                    <a:fld id="{10438251-916A-4079-91F1-F4BF67390763}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22545,7 +22388,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFBE97AF-8D70-410A-912A-01213BAB001B}" type="CELLRANGE">
+                    <a:fld id="{CA459BE6-5FD6-4F62-AD57-EBA37858764E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22579,7 +22422,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F57BCE1-FA68-4598-A0CE-980CB51276FB}" type="CELLRANGE">
+                    <a:fld id="{3C862E3E-EBB7-4F2A-90C4-4395ACC1E295}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22613,7 +22456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E80043F3-A45D-4E87-B7C7-462655D2C387}" type="CELLRANGE">
+                    <a:fld id="{2ABA14BB-DF72-4B35-856C-819E783A6947}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22647,7 +22490,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6BA3F212-D38F-4318-ABC8-A9FD5C91236C}" type="CELLRANGE">
+                    <a:fld id="{A37EB989-C882-4F39-8997-0CF6A9F5474E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22681,7 +22524,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E24EBB23-E425-426E-ADD0-EF181277EB0C}" type="CELLRANGE">
+                    <a:fld id="{923A6A99-E5B9-465E-9026-A9475139B9C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22715,7 +22558,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7436FBF-A2F7-49DC-8B83-04B636DAA670}" type="CELLRANGE">
+                    <a:fld id="{112CCF3A-143B-420D-8D3D-77C5A8DFEC0B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22749,7 +22592,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9DE7AFA-E76D-49F3-BE24-0F87E738CC9F}" type="CELLRANGE">
+                    <a:fld id="{75B12956-2D50-4510-82E4-F97307B33AD1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22783,7 +22626,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1634024E-7F81-4232-8467-6D8299DF8082}" type="CELLRANGE">
+                    <a:fld id="{744DC91A-B02A-4A4F-9603-3F81EADA5FD3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22817,7 +22660,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89C66C7D-C6BE-4A6B-B5B5-1611CF22EA1C}" type="CELLRANGE">
+                    <a:fld id="{C6EF2B12-AF86-4BD0-A9E4-80527838417C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22851,7 +22694,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B929171-931C-4A2C-83CC-06EEA9368762}" type="CELLRANGE">
+                    <a:fld id="{3B165647-757A-45A3-A265-B85B6561FC04}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22885,7 +22728,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2368B6B2-ECFE-48FE-A8FD-74D5541C2557}" type="CELLRANGE">
+                    <a:fld id="{2C84CC77-51F3-43E6-8561-3B74B725A76E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22919,7 +22762,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE07F999-6B85-4F2B-A0CB-FB1D0BA120EC}" type="CELLRANGE">
+                    <a:fld id="{2E1833B4-78B8-4307-872D-7F78711BFA95}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22953,7 +22796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A88CB15C-6B8D-4860-A93A-9E0EA5BBD105}" type="CELLRANGE">
+                    <a:fld id="{A1B87B7F-CBDF-4F80-A174-CE7F9B15E0B1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22987,7 +22830,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C796AD2D-F951-45B6-AF85-23AAD1835048}" type="CELLRANGE">
+                    <a:fld id="{0DB78133-9F9C-45ED-8156-3EBD4359084A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23021,7 +22864,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A693B949-4CE7-4870-92A3-6777E82885E2}" type="CELLRANGE">
+                    <a:fld id="{108B1A3F-B488-4BEE-A3B9-AFFA640DC2FF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23055,7 +22898,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98CDD4BF-2DBA-40A0-9A9A-421962D02AEC}" type="CELLRANGE">
+                    <a:fld id="{D28576F1-BB54-4630-8CCE-0B1612E0E861}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23089,7 +22932,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE0B02E7-9B52-4EAB-8F94-E978875ADDFA}" type="CELLRANGE">
+                    <a:fld id="{46F477A9-4889-4FE2-AFBA-154E3950A33F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23123,7 +22966,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DABA5CE1-9456-44BC-841E-45293F0A53F8}" type="CELLRANGE">
+                    <a:fld id="{7397225A-0EFF-4073-BC35-8CEE4C139319}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24515,66 +24358,62 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -24583,8 +24422,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -24603,6 +24443,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -24611,20 +24459,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -24633,13 +24481,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -24651,31 +24499,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -24691,18 +24538,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -24721,13 +24571,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -24739,14 +24590,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -24760,8 +24611,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -24775,6 +24627,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -24786,9 +24644,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -24803,13 +24661,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -24821,14 +24680,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -24840,13 +24699,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -24855,13 +24715,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -24869,7 +24730,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -24882,19 +24743,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -24902,14 +24755,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -24921,19 +24774,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -24949,7 +24795,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -24958,8 +24804,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -24975,13 +24822,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -24990,17 +24838,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -25012,6 +24863,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -28994,7 +28851,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{12FFEA56-D690-4F65-A8CE-5A70D0B0245D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29016,7 +28873,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{37A695BC-6303-42D0-8DBF-CA3678B423CF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29093,7 +28950,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8659906" cy="6284259"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -29231,7 +29088,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>(128 players)</a:t>
@@ -29340,7 +29197,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>(172 players)</a:t>
@@ -29449,7 +29306,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>(301</a:t>
@@ -29457,7 +29314,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t> </a:t>
@@ -29465,7 +29322,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>players)</a:t>
@@ -29574,7 +29431,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>(665 players)</a:t>
@@ -29683,7 +29540,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>(531 players)</a:t>
@@ -29792,7 +29649,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>(388 players)</a:t>
@@ -29841,7 +29698,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656674" cy="6282070"/>
+    <xdr:ext cx="8663609" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -30356,10 +30213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30373,9 +30230,10 @@
     <col min="11" max="12" width="40.88671875" customWidth="1"/>
     <col min="13" max="13" width="35.33203125" customWidth="1"/>
     <col min="14" max="14" width="33.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30418,8 +30276,11 @@
       <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30468,8 +30329,11 @@
         <f t="shared" ref="N2:N33" si="4">M2/858040.79*100</f>
         <v>99.999999999999972</v>
       </c>
+      <c r="O2">
+        <v>6975366.666666667</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -30518,8 +30382,11 @@
         <f t="shared" si="4"/>
         <v>73.6413440204865</v>
       </c>
+      <c r="O3">
+        <v>6241066.666666667</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -30568,8 +30435,11 @@
         <f t="shared" si="4"/>
         <v>76.616773661774275</v>
       </c>
+      <c r="O4">
+        <v>5604500</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -30618,8 +30488,11 @@
         <f t="shared" si="4"/>
         <v>73.420567803076096</v>
       </c>
+      <c r="O5">
+        <v>5053066.666666667</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -30668,8 +30541,11 @@
         <f t="shared" si="4"/>
         <v>74.589198725622353</v>
       </c>
+      <c r="O6">
+        <v>4575800</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -30718,8 +30594,11 @@
         <f t="shared" si="4"/>
         <v>39.308802557043919</v>
       </c>
+      <c r="O7">
+        <v>4156066.6666666665</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -30768,8 +30647,11 @@
         <f t="shared" si="4"/>
         <v>56.68416532971586</v>
       </c>
+      <c r="O8">
+        <v>3793933.3333333335</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -30818,8 +30700,11 @@
         <f t="shared" si="4"/>
         <v>50.408518457496633</v>
       </c>
+      <c r="O9">
+        <v>3475733.3333333335</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -30868,8 +30753,11 @@
         <f t="shared" si="4"/>
         <v>62.101207333045338</v>
       </c>
+      <c r="O10">
+        <v>3194966.6666666665</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -30918,8 +30806,11 @@
         <f t="shared" si="4"/>
         <v>55.098994769234686</v>
       </c>
+      <c r="O11">
+        <v>3035100</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -30968,8 +30859,11 @@
         <f t="shared" si="4"/>
         <v>41.055155431480124</v>
       </c>
+      <c r="O12">
+        <v>2883433.3333333335</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -31018,8 +30912,11 @@
         <f t="shared" si="4"/>
         <v>31.075348993606699</v>
       </c>
+      <c r="O13">
+        <v>2739366.6666666665</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -31068,8 +30965,11 @@
         <f t="shared" si="4"/>
         <v>46.979259575759805</v>
       </c>
+      <c r="O14">
+        <v>2602366.6666666665</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -31118,8 +31018,11 @@
         <f t="shared" si="4"/>
         <v>31.795101489289333</v>
       </c>
+      <c r="O15">
+        <v>2472300</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -31168,8 +31071,11 @@
         <f t="shared" si="4"/>
         <v>31.82709064449022</v>
       </c>
+      <c r="O16">
+        <v>2348433.3333333335</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -31218,8 +31124,11 @@
         <f t="shared" si="4"/>
         <v>31.341681320301795</v>
       </c>
+      <c r="O17">
+        <v>2231200</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -31268,8 +31177,11 @@
         <f t="shared" si="4"/>
         <v>33.928277465690186</v>
       </c>
+      <c r="O18">
+        <v>2119566.6666666665</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -31318,8 +31230,11 @@
         <f t="shared" si="4"/>
         <v>34.732740386386524</v>
       </c>
+      <c r="O19">
+        <v>2013666.6666666667</v>
+      </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -31368,8 +31283,11 @@
         <f t="shared" si="4"/>
         <v>28.335049199700634</v>
       </c>
+      <c r="O20">
+        <v>1922933.3333333333</v>
+      </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -31418,8 +31336,11 @@
         <f t="shared" si="4"/>
         <v>23.030123078414487</v>
       </c>
+      <c r="O21">
+        <v>1845900</v>
+      </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -31468,8 +31389,11 @@
         <f t="shared" si="4"/>
         <v>30.962455759241937</v>
       </c>
+      <c r="O22">
+        <v>1772133.3333333333</v>
+      </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -31518,8 +31442,11 @@
         <f t="shared" si="4"/>
         <v>19.595675632157302</v>
       </c>
+      <c r="O23">
+        <v>1701300</v>
+      </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -31568,8 +31495,11 @@
         <f t="shared" si="4"/>
         <v>28.276204677868517</v>
       </c>
+      <c r="O24">
+        <v>1633266.6666666667</v>
+      </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -31618,8 +31548,11 @@
         <f t="shared" si="4"/>
         <v>29.446421772093139</v>
       </c>
+      <c r="O25">
+        <v>1568000</v>
+      </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -31668,8 +31601,11 @@
         <f t="shared" si="4"/>
         <v>18.856654821736388</v>
       </c>
+      <c r="O26">
+        <v>1505233.3333333333</v>
+      </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -31718,8 +31654,11 @@
         <f t="shared" si="4"/>
         <v>22.845437219831926</v>
       </c>
+      <c r="O27">
+        <v>1455300</v>
+      </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -31768,8 +31707,11 @@
         <f t="shared" si="4"/>
         <v>22.228863968110417</v>
       </c>
+      <c r="O28">
+        <v>1413333.3333333333</v>
+      </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -31818,8 +31760,11 @@
         <f t="shared" si="4"/>
         <v>18.692915519785487</v>
       </c>
+      <c r="O29">
+        <v>1404666.6666666667</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -31868,8 +31813,11 @@
         <f t="shared" si="4"/>
         <v>14.658917322566914</v>
       </c>
+      <c r="O30">
+        <v>1394400</v>
+      </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -31918,8 +31866,11 @@
         <f t="shared" si="4"/>
         <v>16.420116810530651</v>
       </c>
+      <c r="O31">
+        <v>1384400</v>
+      </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -31968,8 +31919,11 @@
         <f t="shared" si="4"/>
         <v>12.335089570741737</v>
       </c>
+      <c r="O32">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -32018,8 +31972,11 @@
         <f t="shared" si="4"/>
         <v>7.8733529672872535</v>
       </c>
+      <c r="O33">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -32068,8 +32025,11 @@
         <f t="shared" ref="N34:N61" si="9">M34/858040.79*100</f>
         <v>10.649200022297309</v>
       </c>
+      <c r="O34">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -32118,8 +32078,11 @@
         <f t="shared" si="9"/>
         <v>9.1819096385848979</v>
       </c>
+      <c r="O35">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -32168,8 +32131,11 @@
         <f t="shared" si="9"/>
         <v>15.0178955944507</v>
       </c>
+      <c r="O36">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -32218,8 +32184,11 @@
         <f t="shared" si="9"/>
         <v>8.0782418281070321</v>
       </c>
+      <c r="O37">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -32268,8 +32237,11 @@
         <f t="shared" si="9"/>
         <v>11.989271512371806</v>
       </c>
+      <c r="O38">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -32318,8 +32290,11 @@
         <f t="shared" si="9"/>
         <v>10.668612852309735</v>
       </c>
+      <c r="O39">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -32368,8 +32343,11 @@
         <f t="shared" si="9"/>
         <v>9.1911912486118457</v>
       </c>
+      <c r="O40">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -32418,8 +32396,11 @@
         <f t="shared" si="9"/>
         <v>12.738486476849195</v>
       </c>
+      <c r="O41">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -32468,8 +32449,11 @@
         <f t="shared" si="9"/>
         <v>7.8676585993073829</v>
       </c>
+      <c r="O42">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -32518,8 +32502,11 @@
         <f t="shared" si="9"/>
         <v>7.0861328165995472</v>
       </c>
+      <c r="O43">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -32568,8 +32555,11 @@
         <f t="shared" si="9"/>
         <v>11.809518985688316</v>
       </c>
+      <c r="O44">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -32618,8 +32608,11 @@
         <f t="shared" si="9"/>
         <v>5.3204358734507258</v>
       </c>
+      <c r="O45">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -32668,8 +32661,11 @@
         <f t="shared" si="9"/>
         <v>13.433905630523697</v>
       </c>
+      <c r="O46">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -32718,8 +32714,11 @@
         <f t="shared" si="9"/>
         <v>13.10546669931624</v>
       </c>
+      <c r="O47">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -32768,8 +32767,11 @@
         <f t="shared" si="9"/>
         <v>13.669218452889634</v>
       </c>
+      <c r="O48">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -32818,8 +32820,11 @@
         <f t="shared" si="9"/>
         <v>9.090659897415831</v>
       </c>
+      <c r="O49">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -32868,8 +32873,11 @@
         <f t="shared" si="9"/>
         <v>4.6605826280123583</v>
       </c>
+      <c r="O50">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -32918,8 +32926,11 @@
         <f t="shared" si="9"/>
         <v>5.0855472733411657</v>
       </c>
+      <c r="O51">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -32968,8 +32979,11 @@
         <f t="shared" si="9"/>
         <v>3.3858728324559015</v>
       </c>
+      <c r="O52">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -33018,8 +33032,11 @@
         <f t="shared" si="9"/>
         <v>3.0432282828885091</v>
       </c>
+      <c r="O53">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -33068,8 +33085,11 @@
         <f t="shared" si="9"/>
         <v>6.4310742150148812</v>
       </c>
+      <c r="O54">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -33118,8 +33138,11 @@
         <f t="shared" si="9"/>
         <v>3.9663429054462545</v>
       </c>
+      <c r="O55">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -33168,8 +33191,11 @@
         <f t="shared" si="9"/>
         <v>3.9104411341563368</v>
       </c>
+      <c r="O56">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -33218,8 +33244,11 @@
         <f t="shared" si="9"/>
         <v>4.0859864016488068</v>
       </c>
+      <c r="O57">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -33268,8 +33297,11 @@
         <f t="shared" si="9"/>
         <v>1.1518997832259232</v>
       </c>
+      <c r="O58">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -33318,8 +33350,11 @@
         <f t="shared" si="9"/>
         <v>1.1618783298169308</v>
       </c>
+      <c r="O59">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -33368,8 +33403,11 @@
         <f t="shared" si="9"/>
         <v>0.17075878175908166</v>
       </c>
+      <c r="O60">
+        <v>856458</v>
+      </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -33417,6 +33455,9 @@
       <c r="N61">
         <f t="shared" si="9"/>
         <v>2.9791334279108104</v>
+      </c>
+      <c r="O61">
+        <v>856458</v>
       </c>
     </row>
   </sheetData>
@@ -33491,10 +33532,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB976EBE-DBDA-457B-B009-646EB3A5E991}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" activeCellId="6" sqref="A17:A23 C17:C23 D17:D23 E17:E23 F17:F23 G17:G23 H17:H23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33507,9 +33548,10 @@
     <col min="6" max="6" width="28.109375" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" customWidth="1"/>
     <col min="8" max="8" width="35.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33534,8 +33576,11 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -33567,8 +33612,12 @@
         <f>SUM('Data 1-60'!M2:M4)</f>
         <v>2147316.73</v>
       </c>
+      <c r="I2">
+        <f>SUM('Data 1-60'!O2:O4)</f>
+        <v>18820933.333333336</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -33600,8 +33649,12 @@
         <f>SUM('Data 1-60'!M5:M8)</f>
         <v>2093642.9899999998</v>
       </c>
+      <c r="I3">
+        <f>SUM('Data 1-60'!O5:O8)</f>
+        <v>17578866.666666668</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -33633,8 +33686,12 @@
         <f>SUM('Data 1-60'!M9:M15)</f>
         <v>2732976.4899999998</v>
       </c>
+      <c r="I4">
+        <f>SUM('Data 1-60'!O9:O15)</f>
+        <v>20403266.666666668</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -33666,8 +33723,12 @@
         <f>SUM('Data 1-60'!M16:M31)</f>
         <v>3476597.8800000004</v>
       </c>
+      <c r="I5">
+        <f>SUM('Data 1-60'!O16:O31)</f>
+        <v>27713733.333333332</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -33699,8 +33760,12 @@
         <f>SUM('Data 1-60'!M32:M46)</f>
         <v>1314869.46</v>
       </c>
+      <c r="I6">
+        <f>SUM('Data 1-60'!O32:O46)</f>
+        <v>12846870</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -33732,8 +33797,12 @@
         <f>SUM('Data 1-60'!M47:M61)</f>
         <v>651236.58000000007</v>
       </c>
+      <c r="I7">
+        <f>SUM('Data 1-60'!O47:O61)</f>
+        <v>12846870</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -33759,7 +33828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -33791,8 +33860,12 @@
         <f t="shared" si="0"/>
         <v>715772.24333333329</v>
       </c>
+      <c r="I10">
+        <f>I2/3</f>
+        <v>6273644.444444445</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5.5</v>
       </c>
@@ -33824,8 +33897,12 @@
         <f t="shared" si="1"/>
         <v>523410.74749999994</v>
       </c>
+      <c r="I11">
+        <f>I3/4</f>
+        <v>4394716.666666667</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -33857,8 +33934,12 @@
         <f t="shared" si="2"/>
         <v>390425.21285714285</v>
       </c>
+      <c r="I12">
+        <f>I4/7</f>
+        <v>2914752.3809523811</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>22.5</v>
       </c>
@@ -33890,8 +33971,12 @@
         <f t="shared" si="3"/>
         <v>217287.36750000002</v>
       </c>
+      <c r="I13">
+        <f>I5/16</f>
+        <v>1732108.3333333333</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>38</v>
       </c>
@@ -33923,8 +34008,12 @@
         <f t="shared" si="4"/>
         <v>87657.963999999993</v>
       </c>
+      <c r="I14">
+        <f>I6/15</f>
+        <v>856458</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>53</v>
       </c>
@@ -33956,8 +34045,12 @@
         <f t="shared" si="4"/>
         <v>43415.772000000004</v>
       </c>
+      <c r="I15">
+        <f>I7/15</f>
+        <v>856458</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -33982,8 +34075,11 @@
       <c r="H17" t="s">
         <v>32</v>
       </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -34014,8 +34110,12 @@
         <f t="shared" ref="H18:H23" si="10">H10/715772.2433*100</f>
         <v>100.00000000465697</v>
       </c>
+      <c r="I18">
+        <f>I10/I10*100</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>5.5</v>
       </c>
@@ -34046,8 +34146,12 @@
         <f t="shared" si="10"/>
         <v>73.125320575000842</v>
       </c>
+      <c r="I19">
+        <f>I11/I10*100</f>
+        <v>70.050458000665927</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>11</v>
       </c>
@@ -34078,8 +34182,12 @@
         <f t="shared" si="10"/>
         <v>54.546011879019574</v>
       </c>
+      <c r="I20">
+        <f>I12/I10*100</f>
+        <v>46.460273717512109</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>22.5</v>
       </c>
@@ -34110,8 +34218,12 @@
         <f t="shared" si="10"/>
         <v>30.357054151501771</v>
       </c>
+      <c r="I21">
+        <f>I13/I10*100</f>
+        <v>27.60928434296563</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>38</v>
       </c>
@@ -34142,8 +34254,12 @@
         <f t="shared" si="10"/>
         <v>12.246628005000764</v>
       </c>
+      <c r="I22">
+        <f>I14/I10*100</f>
+        <v>13.65168216949921</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>53</v>
       </c>
@@ -34173,6 +34289,10 @@
       <c r="H23">
         <f t="shared" si="10"/>
         <v>6.0655847452027079</v>
+      </c>
+      <c r="I23">
+        <f>I15/I10*100</f>
+        <v>13.65168216949921</v>
       </c>
     </row>
   </sheetData>
